--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -7,15 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Flotta" sheetId="1" r:id="rId1"/>
-    <sheet name="Storico" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="193">
   <si>
     <t>targa</t>
   </si>
@@ -584,25 +583,16 @@
     <t>KALOV SLAVI KRASIMIROV</t>
   </si>
   <si>
-    <t>CHIARA.NARDECCHIA</t>
+    <t>FINE RENT</t>
   </si>
   <si>
     <t>PASQUARELLI</t>
   </si>
   <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
     <t>18/12/2025</t>
-  </si>
-  <si>
-    <t>vecchio_operatore</t>
-  </si>
-  <si>
-    <t>nuovo_operatore</t>
-  </si>
-  <si>
-    <t>data_cambio</t>
-  </si>
-  <si>
-    <t>STEFANO.CAMPLONE</t>
   </si>
 </sst>
 </file>
@@ -1760,6 +1750,9 @@
       <c r="B99" t="s">
         <v>189</v>
       </c>
+      <c r="C99" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
@@ -1777,48 +1770,7 @@
         <v>190</v>
       </c>
       <c r="C101" t="s">
-        <v>191</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Stato Attuale" sheetId="1" r:id="rId1"/>
+    <sheet name="Storico Passaggi" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="196">
   <si>
     <t>targa</t>
   </si>
@@ -586,13 +587,22 @@
     <t>FINE RENT</t>
   </si>
   <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
+  </si>
+  <si>
     <t>PASQUARELLI</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>18/12/2025</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +1761,7 @@
         <v>189</v>
       </c>
       <c r="C99" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1767,10 +1777,51 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" t="s">
         <v>190</v>
       </c>
-      <c r="C101" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>192</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://domyssrl-my.sharepoint.com/personal/acquisti_domys_it/Documents/PROGRAMMAZIONE E CONTROLLO/FLOTTA AZIENDALE/MOVIMENTI_DB/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_1C69F7762C70A915B7F1319A612C5FDB3130D088" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2526EB92-0A3D-4B90-8594-E38C32B4CEB3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="28725" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stato Attuale" sheetId="1" r:id="rId1"/>
     <sheet name="Storico Passaggi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="196">
   <si>
     <t>targa</t>
   </si>
@@ -440,176 +446,176 @@
     <t>LEPORATI PEREZ.MELANY LUNA</t>
   </si>
   <si>
+    <t>DA ASSEGNARE (MATERNITA')</t>
+  </si>
+  <si>
+    <t>DIEGO.PANTALONE</t>
+  </si>
+  <si>
+    <t>GIADA.GIANSALVO</t>
+  </si>
+  <si>
+    <t>GIULIA.RENZETTI</t>
+  </si>
+  <si>
+    <t>LORELLAD'ORTONA</t>
+  </si>
+  <si>
+    <t>MONICA.LENKA</t>
+  </si>
+  <si>
+    <t>LUANA.VALENTINI</t>
+  </si>
+  <si>
+    <t>NOD PESCARA</t>
+  </si>
+  <si>
+    <t>MAURIZIO.MASCIARELLI</t>
+  </si>
+  <si>
+    <t>MATTEO.CERRITETLLI</t>
+  </si>
+  <si>
+    <t>MILENA.IANNIELLO</t>
+  </si>
+  <si>
+    <t>DOINA.ATANASOAEI</t>
+  </si>
+  <si>
+    <t>AUGUSTA.CANDELORO</t>
+  </si>
+  <si>
+    <t>FRANCESCO.DI.DOMENICANTONIO</t>
+  </si>
+  <si>
+    <t>NORA.CIMINO</t>
+  </si>
+  <si>
+    <t>GIANLUCA.LUCIANI</t>
+  </si>
+  <si>
+    <t>ALESSIO.PELLICCIA</t>
+  </si>
+  <si>
+    <t>ROCCO.ZACCAGNINO</t>
+  </si>
+  <si>
+    <t>GIUSEPPE.GRAVINA</t>
+  </si>
+  <si>
+    <t>BEATRICE.D'INNOCENZO</t>
+  </si>
+  <si>
+    <t>FRANCESCA.COTOLESSA</t>
+  </si>
+  <si>
+    <t>PITOLI.PAULA RENATA</t>
+  </si>
+  <si>
+    <t>ANTONINO.MICOZZI</t>
+  </si>
+  <si>
+    <t>PAOLA.VADANESCU</t>
+  </si>
+  <si>
+    <t>MOANA.DIFRANCESCO</t>
+  </si>
+  <si>
+    <t>DI DEO.MICHELE (da assegnare)</t>
+  </si>
+  <si>
+    <t>TONIA DE TOMMASO</t>
+  </si>
+  <si>
+    <t>VALERIA.BENEGIAMO</t>
+  </si>
+  <si>
+    <t>JESSICA.BERARDINUCCI</t>
+  </si>
+  <si>
+    <t>MARIA.IACOVONE</t>
+  </si>
+  <si>
+    <t>SABINA.LANCIA</t>
+  </si>
+  <si>
+    <t>IEZZI.SERENA</t>
+  </si>
+  <si>
+    <t>MARCO.DI.NIZO</t>
+  </si>
+  <si>
+    <t>GIAMPIERO.RICUCCI</t>
+  </si>
+  <si>
+    <t>SARA.VALLERI</t>
+  </si>
+  <si>
+    <t>SALVATORE.ALEMANNI</t>
+  </si>
+  <si>
+    <t>MARCO.MAGAZZINIERE</t>
+  </si>
+  <si>
+    <t>VALERIO.D'ANTONIO</t>
+  </si>
+  <si>
+    <t>YOEL.DESPAIGNE</t>
+  </si>
+  <si>
+    <t>ERIKA.PATELLA</t>
+  </si>
+  <si>
+    <t>SCACCIA FEDERICA</t>
+  </si>
+  <si>
+    <t>SOFIA.D'ANGELO</t>
+  </si>
+  <si>
+    <t>COCO.FEDERICO</t>
+  </si>
+  <si>
+    <t>CARAVAGGIO.MARISA</t>
+  </si>
+  <si>
+    <t>CHIARA.MANCINI</t>
+  </si>
+  <si>
+    <t>MATTEO.CAVACINI</t>
+  </si>
+  <si>
+    <t>COMPARELLI</t>
+  </si>
+  <si>
+    <t>KALOV SLAVI KRASIMIROV</t>
+  </si>
+  <si>
+    <t>FINE RENT</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
+  </si>
+  <si>
     <t>VALENTINA.DE.GREGORIIS</t>
-  </si>
-  <si>
-    <t>DIEGO.PANTALONE</t>
-  </si>
-  <si>
-    <t>GIADA.GIANSALVO</t>
-  </si>
-  <si>
-    <t>GIULIA.RENZETTI</t>
-  </si>
-  <si>
-    <t>LORELLAD'ORTONA</t>
-  </si>
-  <si>
-    <t>MONICA.LENKA</t>
-  </si>
-  <si>
-    <t>LUANA.VALENTINI</t>
-  </si>
-  <si>
-    <t>NOD PESCARA</t>
-  </si>
-  <si>
-    <t>MAURIZIO.MASCIARELLI</t>
-  </si>
-  <si>
-    <t>MATTEO.CERRITETLLI</t>
-  </si>
-  <si>
-    <t>MILENA.IANNIELLO</t>
-  </si>
-  <si>
-    <t>DOINA.ATANASOAEI</t>
-  </si>
-  <si>
-    <t>AUGUSTA.CANDELORO</t>
-  </si>
-  <si>
-    <t>FRANCESCO.DI.DOMENICANTONIO</t>
-  </si>
-  <si>
-    <t>NORA.CIMINO</t>
-  </si>
-  <si>
-    <t>GIANLUCA.LUCIANI</t>
-  </si>
-  <si>
-    <t>ALESSIO.PELLICCIA</t>
-  </si>
-  <si>
-    <t>ROCCO.ZACCAGNINO</t>
-  </si>
-  <si>
-    <t>GIUSEPPE.GRAVINA</t>
-  </si>
-  <si>
-    <t>BEATRICE.D'INNOCENZO</t>
-  </si>
-  <si>
-    <t>FRANCESCA.COTOLESSA</t>
-  </si>
-  <si>
-    <t>PITOLI.PAULA RENATA</t>
-  </si>
-  <si>
-    <t>ANTONINO.MICOZZI</t>
-  </si>
-  <si>
-    <t>PAOLA.VADANESCU</t>
-  </si>
-  <si>
-    <t>MOANA.DIFRANCESCO</t>
-  </si>
-  <si>
-    <t>DI DEO.MICHELE (da assegnare)</t>
-  </si>
-  <si>
-    <t>TONIA DE TOMMASO</t>
-  </si>
-  <si>
-    <t>VALERIA.BENEGIAMO</t>
-  </si>
-  <si>
-    <t>JESSICA.BERARDINUCCI</t>
-  </si>
-  <si>
-    <t>MARIA.IACOVONE</t>
-  </si>
-  <si>
-    <t>SABINA.LANCIA</t>
-  </si>
-  <si>
-    <t>IEZZI.SERENA</t>
-  </si>
-  <si>
-    <t>MARCO.DI.NIZO</t>
-  </si>
-  <si>
-    <t>GIAMPIERO.RICUCCI</t>
-  </si>
-  <si>
-    <t>SARA.VALLERI</t>
-  </si>
-  <si>
-    <t>SALVATORE.ALEMANNI</t>
-  </si>
-  <si>
-    <t>MARCO.MAGAZZINIERE</t>
-  </si>
-  <si>
-    <t>VALERIO.D'ANTONIO</t>
-  </si>
-  <si>
-    <t>YOEL.DESPAIGNE</t>
-  </si>
-  <si>
-    <t>ERIKA.PATELLA</t>
-  </si>
-  <si>
-    <t>SCACCIA FEDERICA</t>
-  </si>
-  <si>
-    <t>SOFIA.D'ANGELO</t>
-  </si>
-  <si>
-    <t>COCO.FEDERICO</t>
-  </si>
-  <si>
-    <t>CARAVAGGIO.MARISA</t>
-  </si>
-  <si>
-    <t>CHIARA.MANCINI</t>
-  </si>
-  <si>
-    <t>MATTEO.CAVACINI</t>
-  </si>
-  <si>
-    <t>COMPARELLI</t>
-  </si>
-  <si>
-    <t>KALOV SLAVI KRASIMIROV</t>
-  </si>
-  <si>
-    <t>FINE RENT</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>Targa</t>
-  </si>
-  <si>
-    <t>Operatore_Precedente</t>
-  </si>
-  <si>
-    <t>Nuovo_Operatore</t>
-  </si>
-  <si>
-    <t>Data_Cambio</t>
-  </si>
-  <si>
-    <t>PASQUARELLI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,17 +674,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -716,7 +730,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -750,6 +764,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -784,9 +799,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -959,14 +975,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,7 +997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -985,7 +1005,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -993,7 +1013,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1001,7 +1021,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1009,7 +1029,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1017,7 +1037,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1025,7 +1045,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1033,7 +1053,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1041,7 +1061,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1049,7 +1069,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1057,7 +1077,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1065,7 +1085,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1073,7 +1093,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1081,7 +1101,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1089,7 +1109,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1097,7 +1117,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1105,7 +1125,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1133,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1121,7 +1141,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1129,7 +1149,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1137,7 +1157,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1145,7 +1165,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1153,7 +1173,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1161,7 +1181,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1169,7 +1189,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1177,7 +1197,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1185,7 +1205,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1193,7 +1213,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1201,7 +1221,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1209,7 +1229,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1217,7 +1237,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1225,7 +1245,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1253,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1241,7 +1261,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1249,7 +1269,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1257,7 +1277,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1265,7 +1285,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1273,7 +1293,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1281,7 +1301,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1289,7 +1309,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1297,15 +1317,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1313,7 +1336,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1321,7 +1344,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1329,7 +1352,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1337,7 +1360,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1345,7 +1368,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1353,7 +1376,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1361,7 +1384,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1369,7 +1392,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1377,7 +1400,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1385,7 +1408,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1393,7 +1416,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1401,7 +1424,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1409,7 +1432,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1417,7 +1440,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1425,7 +1448,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1433,7 +1456,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1441,7 +1464,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1449,7 +1472,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1457,7 +1480,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1465,7 +1488,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1473,7 +1496,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1481,7 +1504,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1489,7 +1512,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1497,7 +1520,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1505,7 +1528,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1513,7 +1536,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1521,7 +1544,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1529,7 +1552,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1537,7 +1560,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1545,7 +1568,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1553,7 +1576,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1561,7 +1584,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1569,7 +1592,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1577,7 +1600,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1585,7 +1608,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1593,7 +1616,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1601,7 +1624,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -1609,7 +1632,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -1617,7 +1640,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -1625,7 +1648,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -1633,7 +1656,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -1641,7 +1664,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -1649,7 +1672,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -1657,7 +1680,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -1665,7 +1688,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -1673,7 +1696,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -1681,7 +1704,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -1689,7 +1712,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -1697,7 +1720,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -1705,7 +1728,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -1713,7 +1736,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -1721,7 +1744,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -1729,7 +1752,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -1737,7 +1760,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -1745,7 +1768,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -1753,7 +1776,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -1764,7 +1787,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -1772,7 +1795,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -1789,14 +1812,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>191</v>
       </c>
@@ -1810,15 +1841,15 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>190</v>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://domyssrl-my.sharepoint.com/personal/acquisti_domys_it/Documents/PROGRAMMAZIONE E CONTROLLO/FLOTTA AZIENDALE/MOVIMENTI_DB/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_1C69F7762C70A915B7F1319A612C5FDB3130D088" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2526EB92-0A3D-4B90-8594-E38C32B4CEB3}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="28725" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Stato Attuale" sheetId="1" r:id="rId1"/>
     <sheet name="Storico Passaggi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="198">
   <si>
     <t>targa</t>
   </si>
@@ -347,275 +341,281 @@
     <t>MARICA.SPADACCINI</t>
   </si>
   <si>
+    <t>ZACCAGNINO ROCCO</t>
+  </si>
+  <si>
+    <t>DA ASSEGNARE</t>
+  </si>
+  <si>
+    <t>VALERY.PACELLA</t>
+  </si>
+  <si>
+    <t>SIMONA.PETRAGNANO</t>
+  </si>
+  <si>
+    <t>ALESSIA.DE LUCA</t>
+  </si>
+  <si>
+    <t>DARIO.LELLA</t>
+  </si>
+  <si>
+    <t>ALEMANNO.PIERPAOLO 28-07 TEMPORANEO</t>
+  </si>
+  <si>
+    <t>CINZIA.D'ORAZIO</t>
+  </si>
+  <si>
+    <t>DI TIZIO.VALENTINA</t>
+  </si>
+  <si>
+    <t>TURDO'.SIMONA</t>
+  </si>
+  <si>
+    <t>GAIA.MARTI</t>
+  </si>
+  <si>
+    <t>DAVIDE.BONFITTO</t>
+  </si>
+  <si>
+    <t>JANE.LUCIANO</t>
+  </si>
+  <si>
+    <t>MARATEA.FELICIA</t>
+  </si>
+  <si>
+    <t>ANTONIO.BRUNO</t>
+  </si>
+  <si>
+    <t>MARIA.LUCIANO</t>
+  </si>
+  <si>
+    <t>MIMOZA.TREPSENISHTI</t>
+  </si>
+  <si>
+    <t>MARCELLA.TRIVARELLI</t>
+  </si>
+  <si>
+    <t>LORENZA.COLABRUNO</t>
+  </si>
+  <si>
+    <t>MICAELA.POSTIGLIONE</t>
+  </si>
+  <si>
+    <t>MARCO.VIOLA</t>
+  </si>
+  <si>
+    <t>ARSONELA-MUCA</t>
+  </si>
+  <si>
+    <t>MICHELA.VOCIONE</t>
+  </si>
+  <si>
+    <t>FEDERICA.DIREMIGIO</t>
+  </si>
+  <si>
+    <t>MARIALUCIA.DELRE</t>
+  </si>
+  <si>
+    <t>NATHALIE.BOVE</t>
+  </si>
+  <si>
+    <t>SECRIERU.NATALIA</t>
+  </si>
+  <si>
+    <t>FELICIA.FALCONIO</t>
+  </si>
+  <si>
+    <t>AURORA.TARANTINI</t>
+  </si>
+  <si>
+    <t>PIERPAOLO.ALEMANNO</t>
+  </si>
+  <si>
+    <t>ESTER.FECONDO</t>
+  </si>
+  <si>
+    <t>NADIR.FINIZII (in assistenza fino a dicembre probabilmente)</t>
+  </si>
+  <si>
+    <t>LEPORATI PEREZ.MELANY LUNA</t>
+  </si>
+  <si>
+    <t>DA ASSEGNARE (MATERNITA')</t>
+  </si>
+  <si>
+    <t>DIEGO.PANTALONE</t>
+  </si>
+  <si>
+    <t>GIADA.GIANSALVO</t>
+  </si>
+  <si>
+    <t>GIULIA.RENZETTI</t>
+  </si>
+  <si>
+    <t>LORELLAD'ORTONA</t>
+  </si>
+  <si>
+    <t>MONICA.LENKA</t>
+  </si>
+  <si>
+    <t>LUANA.VALENTINI</t>
+  </si>
+  <si>
+    <t>NOD PESCARA</t>
+  </si>
+  <si>
+    <t>MAURIZIO.MASCIARELLI</t>
+  </si>
+  <si>
+    <t>MATTEO.CERRITETLLI</t>
+  </si>
+  <si>
+    <t>MILENA.IANNIELLO</t>
+  </si>
+  <si>
+    <t>DOINA.ATANASOAEI</t>
+  </si>
+  <si>
+    <t>AUGUSTA.CANDELORO</t>
+  </si>
+  <si>
+    <t>FRANCESCO.DI.DOMENICANTONIO</t>
+  </si>
+  <si>
+    <t>NORA.CIMINO</t>
+  </si>
+  <si>
+    <t>GIANLUCA.LUCIANI</t>
+  </si>
+  <si>
+    <t>ALESSIO.PELLICCIA</t>
+  </si>
+  <si>
+    <t>NARDECCHIA CHIARA</t>
+  </si>
+  <si>
+    <t>GIUSEPPE.GRAVINA</t>
+  </si>
+  <si>
+    <t>BEATRICE.D'INNOCENZO</t>
+  </si>
+  <si>
+    <t>FRANCESCA.COTOLESSA</t>
+  </si>
+  <si>
+    <t>PITOLI.PAULA RENATA</t>
+  </si>
+  <si>
+    <t>ANTONINO.MICOZZI</t>
+  </si>
+  <si>
+    <t>PAOLA.VADANESCU</t>
+  </si>
+  <si>
+    <t>MOANA.DIFRANCESCO</t>
+  </si>
+  <si>
+    <t>DI DEO.MICHELE (da assegnare)</t>
+  </si>
+  <si>
+    <t>TONIA DE TOMMASO</t>
+  </si>
+  <si>
+    <t>VALERIA.BENEGIAMO</t>
+  </si>
+  <si>
+    <t>JESSICA.BERARDINUCCI</t>
+  </si>
+  <si>
+    <t>MARIA.IACOVONE</t>
+  </si>
+  <si>
+    <t>SABINA.LANCIA</t>
+  </si>
+  <si>
+    <t>IEZZI.SERENA</t>
+  </si>
+  <si>
+    <t>MARCO.DI.NIZO</t>
+  </si>
+  <si>
+    <t>GIAMPIERO.RICUCCI</t>
+  </si>
+  <si>
+    <t>SARA.VALLERI</t>
+  </si>
+  <si>
+    <t>SALVATORE.ALEMANNI</t>
+  </si>
+  <si>
+    <t>MARCO.MAGAZZINIERE</t>
+  </si>
+  <si>
+    <t>VALERIO.D'ANTONIO</t>
+  </si>
+  <si>
+    <t>YOEL.DESPAIGNE</t>
+  </si>
+  <si>
+    <t>ERIKA.PATELLA</t>
+  </si>
+  <si>
+    <t>SCACCIA FEDERICA</t>
+  </si>
+  <si>
+    <t>SOFIA.D'ANGELO</t>
+  </si>
+  <si>
+    <t>COCO.FEDERICO</t>
+  </si>
+  <si>
+    <t>CARAVAGGIO.MARISA</t>
+  </si>
+  <si>
+    <t>CHIARA.MANCINI</t>
+  </si>
+  <si>
+    <t>MATTEO.CAVACINI</t>
+  </si>
+  <si>
+    <t>COMPARELLI</t>
+  </si>
+  <si>
+    <t>KALOV SLAVI KRASIMIROV</t>
+  </si>
+  <si>
+    <t>FINE RENT</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
+  </si>
+  <si>
     <t>ANGELO.LAINO'</t>
   </si>
   <si>
-    <t>DA ASSEGNARE</t>
-  </si>
-  <si>
-    <t>VALERY.PACELLA</t>
-  </si>
-  <si>
-    <t>SIMONA.PETRAGNANO</t>
-  </si>
-  <si>
-    <t>ALESSIA.DE LUCA</t>
-  </si>
-  <si>
-    <t>DARIO.LELLA</t>
-  </si>
-  <si>
-    <t>ALEMANNO.PIERPAOLO 28-07 TEMPORANEO</t>
-  </si>
-  <si>
-    <t>CINZIA.D'ORAZIO</t>
-  </si>
-  <si>
-    <t>DI TIZIO.VALENTINA</t>
-  </si>
-  <si>
-    <t>TURDO'.SIMONA</t>
-  </si>
-  <si>
-    <t>GAIA.MARTI</t>
-  </si>
-  <si>
-    <t>DAVIDE.BONFITTO</t>
-  </si>
-  <si>
-    <t>JANE.LUCIANO</t>
-  </si>
-  <si>
-    <t>MARATEA.FELICIA</t>
-  </si>
-  <si>
-    <t>ANTONIO.BRUNO</t>
-  </si>
-  <si>
-    <t>MARIA.LUCIANO</t>
-  </si>
-  <si>
-    <t>MIMOZA.TREPSENISHTI</t>
-  </si>
-  <si>
-    <t>MARCELLA.TRIVARELLI</t>
-  </si>
-  <si>
-    <t>LORENZA.COLABRUNO</t>
-  </si>
-  <si>
-    <t>MICAELA.POSTIGLIONE</t>
-  </si>
-  <si>
-    <t>MARCO.VIOLA</t>
-  </si>
-  <si>
-    <t>ARSONELA-MUCA</t>
-  </si>
-  <si>
-    <t>MICHELA.VOCIONE</t>
-  </si>
-  <si>
-    <t>FEDERICA.DIREMIGIO</t>
-  </si>
-  <si>
-    <t>MARIALUCIA.DELRE</t>
-  </si>
-  <si>
-    <t>NATHALIE.BOVE</t>
-  </si>
-  <si>
-    <t>SECRIERU.NATALIA</t>
-  </si>
-  <si>
-    <t>FELICIA.FALCONIO</t>
-  </si>
-  <si>
-    <t>AURORA.TARANTINI</t>
-  </si>
-  <si>
-    <t>PIERPAOLO.ALEMANNO</t>
-  </si>
-  <si>
-    <t>ESTER.FECONDO</t>
-  </si>
-  <si>
-    <t>NADIR.FINIZII (in assistenza fino a dicembre probabilmente)</t>
-  </si>
-  <si>
-    <t>LEPORATI PEREZ.MELANY LUNA</t>
-  </si>
-  <si>
-    <t>DA ASSEGNARE (MATERNITA')</t>
-  </si>
-  <si>
-    <t>DIEGO.PANTALONE</t>
-  </si>
-  <si>
-    <t>GIADA.GIANSALVO</t>
-  </si>
-  <si>
-    <t>GIULIA.RENZETTI</t>
-  </si>
-  <si>
-    <t>LORELLAD'ORTONA</t>
-  </si>
-  <si>
-    <t>MONICA.LENKA</t>
-  </si>
-  <si>
-    <t>LUANA.VALENTINI</t>
-  </si>
-  <si>
-    <t>NOD PESCARA</t>
-  </si>
-  <si>
-    <t>MAURIZIO.MASCIARELLI</t>
-  </si>
-  <si>
-    <t>MATTEO.CERRITETLLI</t>
-  </si>
-  <si>
-    <t>MILENA.IANNIELLO</t>
-  </si>
-  <si>
-    <t>DOINA.ATANASOAEI</t>
-  </si>
-  <si>
-    <t>AUGUSTA.CANDELORO</t>
-  </si>
-  <si>
-    <t>FRANCESCO.DI.DOMENICANTONIO</t>
-  </si>
-  <si>
-    <t>NORA.CIMINO</t>
-  </si>
-  <si>
-    <t>GIANLUCA.LUCIANI</t>
-  </si>
-  <si>
-    <t>ALESSIO.PELLICCIA</t>
-  </si>
-  <si>
     <t>ROCCO.ZACCAGNINO</t>
-  </si>
-  <si>
-    <t>GIUSEPPE.GRAVINA</t>
-  </si>
-  <si>
-    <t>BEATRICE.D'INNOCENZO</t>
-  </si>
-  <si>
-    <t>FRANCESCA.COTOLESSA</t>
-  </si>
-  <si>
-    <t>PITOLI.PAULA RENATA</t>
-  </si>
-  <si>
-    <t>ANTONINO.MICOZZI</t>
-  </si>
-  <si>
-    <t>PAOLA.VADANESCU</t>
-  </si>
-  <si>
-    <t>MOANA.DIFRANCESCO</t>
-  </si>
-  <si>
-    <t>DI DEO.MICHELE (da assegnare)</t>
-  </si>
-  <si>
-    <t>TONIA DE TOMMASO</t>
-  </si>
-  <si>
-    <t>VALERIA.BENEGIAMO</t>
-  </si>
-  <si>
-    <t>JESSICA.BERARDINUCCI</t>
-  </si>
-  <si>
-    <t>MARIA.IACOVONE</t>
-  </si>
-  <si>
-    <t>SABINA.LANCIA</t>
-  </si>
-  <si>
-    <t>IEZZI.SERENA</t>
-  </si>
-  <si>
-    <t>MARCO.DI.NIZO</t>
-  </si>
-  <si>
-    <t>GIAMPIERO.RICUCCI</t>
-  </si>
-  <si>
-    <t>SARA.VALLERI</t>
-  </si>
-  <si>
-    <t>SALVATORE.ALEMANNI</t>
-  </si>
-  <si>
-    <t>MARCO.MAGAZZINIERE</t>
-  </si>
-  <si>
-    <t>VALERIO.D'ANTONIO</t>
-  </si>
-  <si>
-    <t>YOEL.DESPAIGNE</t>
-  </si>
-  <si>
-    <t>ERIKA.PATELLA</t>
-  </si>
-  <si>
-    <t>SCACCIA FEDERICA</t>
-  </si>
-  <si>
-    <t>SOFIA.D'ANGELO</t>
-  </si>
-  <si>
-    <t>COCO.FEDERICO</t>
-  </si>
-  <si>
-    <t>CARAVAGGIO.MARISA</t>
-  </si>
-  <si>
-    <t>CHIARA.MANCINI</t>
-  </si>
-  <si>
-    <t>MATTEO.CAVACINI</t>
-  </si>
-  <si>
-    <t>COMPARELLI</t>
-  </si>
-  <si>
-    <t>KALOV SLAVI KRASIMIROV</t>
-  </si>
-  <si>
-    <t>FINE RENT</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>Targa</t>
-  </si>
-  <si>
-    <t>Operatore_Precedente</t>
-  </si>
-  <si>
-    <t>Nuovo_Operatore</t>
-  </si>
-  <si>
-    <t>Data_Cambio</t>
-  </si>
-  <si>
-    <t>VALENTINA.DE.GREGORIIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,25 +674,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -730,7 +722,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -764,7 +756,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -799,10 +790,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -975,18 +965,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1005,7 +991,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +999,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1007,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1029,7 +1015,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1037,15 +1023,18 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1053,7 +1042,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1061,7 +1050,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1069,7 +1058,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1077,7 +1066,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1085,7 +1074,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1093,7 +1082,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1101,7 +1090,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1109,7 +1098,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1117,7 +1106,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1125,7 +1114,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1133,7 +1122,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1141,7 +1130,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1149,7 +1138,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1157,7 +1146,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1165,7 +1154,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1173,7 +1162,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1181,7 +1170,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1189,7 +1178,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1197,7 +1186,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1205,7 +1194,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1213,7 +1202,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1221,7 +1210,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1229,7 +1218,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1237,7 +1226,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1245,7 +1234,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1253,7 +1242,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1261,7 +1250,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1269,7 +1258,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1277,7 +1266,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1285,7 +1274,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1293,7 +1282,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1301,7 +1290,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1309,7 +1298,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1317,7 +1306,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1325,10 +1314,10 @@
         <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1336,7 +1325,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1344,7 +1333,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1352,7 +1341,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1360,7 +1349,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1368,7 +1357,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1376,7 +1365,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1384,7 +1373,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1392,7 +1381,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1400,7 +1389,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1408,7 +1397,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1416,7 +1405,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1424,7 +1413,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1432,7 +1421,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1440,7 +1429,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1448,7 +1437,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1456,7 +1445,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1464,7 +1453,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1472,15 +1461,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1488,7 +1480,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1496,7 +1488,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1504,7 +1496,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1512,7 +1504,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1520,7 +1512,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1528,7 +1520,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1536,7 +1528,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1544,7 +1536,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1552,7 +1544,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1560,7 +1552,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1568,7 +1560,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1576,7 +1568,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1584,7 +1576,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1592,7 +1584,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1600,7 +1592,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1608,7 +1600,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1616,7 +1608,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1624,7 +1616,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -1632,7 +1624,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -1640,7 +1632,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -1648,7 +1640,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -1656,7 +1648,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -1664,7 +1656,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -1672,7 +1664,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -1680,7 +1672,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -1688,7 +1680,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -1696,7 +1688,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -1704,7 +1696,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -1712,7 +1704,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -1720,7 +1712,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -1728,7 +1720,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -1736,7 +1728,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -1744,7 +1736,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -1752,7 +1744,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -1760,7 +1752,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -1768,7 +1760,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -1776,7 +1768,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -1784,10 +1776,10 @@
         <v>189</v>
       </c>
       <c r="C99" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -1795,7 +1787,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -1803,7 +1795,7 @@
         <v>189</v>
       </c>
       <c r="C101" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1812,46 +1804,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
         <v>190</v>
       </c>
     </row>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://domyssrl-my.sharepoint.com/personal/acquisti_domys_it/Documents/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42F2E4AB-8061-4A21-80EA-F363F94DD89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stato Attuale" sheetId="1" r:id="rId1"/>
     <sheet name="Storico Passaggi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="190">
   <si>
     <t>targa</t>
   </si>
@@ -152,9 +171,6 @@
     <t>GL351TJ</t>
   </si>
   <si>
-    <t>GL352TJ</t>
-  </si>
-  <si>
     <t>GL353TJ</t>
   </si>
   <si>
@@ -209,9 +225,6 @@
     <t>GL385TJ</t>
   </si>
   <si>
-    <t>GL386TJ</t>
-  </si>
-  <si>
     <t>GL388TJ</t>
   </si>
   <si>
@@ -278,12 +291,6 @@
     <t>GT751SR</t>
   </si>
   <si>
-    <t>GL944TJ</t>
-  </si>
-  <si>
-    <t>GM444BL</t>
-  </si>
-  <si>
     <t>GM448BL</t>
   </si>
   <si>
@@ -329,21 +336,12 @@
     <t>RUSSO.ZAIRA</t>
   </si>
   <si>
-    <t>LORENZA.CUFARA</t>
-  </si>
-  <si>
-    <t>STEFANO.CAMPLONE (in assistenza)</t>
-  </si>
-  <si>
     <t>ALIAJ.KLODIAN</t>
   </si>
   <si>
     <t>MARICA.SPADACCINI</t>
   </si>
   <si>
-    <t>ZACCAGNINO ROCCO</t>
-  </si>
-  <si>
     <t>DA ASSEGNARE</t>
   </si>
   <si>
@@ -368,9 +366,6 @@
     <t>DI TIZIO.VALENTINA</t>
   </si>
   <si>
-    <t>TURDO'.SIMONA</t>
-  </si>
-  <si>
     <t>GAIA.MARTI</t>
   </si>
   <si>
@@ -434,15 +429,9 @@
     <t>ESTER.FECONDO</t>
   </si>
   <si>
-    <t>NADIR.FINIZII (in assistenza fino a dicembre probabilmente)</t>
-  </si>
-  <si>
     <t>LEPORATI PEREZ.MELANY LUNA</t>
   </si>
   <si>
-    <t>DA ASSEGNARE (MATERNITA')</t>
-  </si>
-  <si>
     <t>DIEGO.PANTALONE</t>
   </si>
   <si>
@@ -458,9 +447,6 @@
     <t>MONICA.LENKA</t>
   </si>
   <si>
-    <t>LUANA.VALENTINI</t>
-  </si>
-  <si>
     <t>NOD PESCARA</t>
   </si>
   <si>
@@ -515,9 +501,6 @@
     <t>MOANA.DIFRANCESCO</t>
   </si>
   <si>
-    <t>DI DEO.MICHELE (da assegnare)</t>
-  </si>
-  <si>
     <t>TONIA DE TOMMASO</t>
   </si>
   <si>
@@ -527,9 +510,6 @@
     <t>JESSICA.BERARDINUCCI</t>
   </si>
   <si>
-    <t>MARIA.IACOVONE</t>
-  </si>
-  <si>
     <t>SABINA.LANCIA</t>
   </si>
   <si>
@@ -548,9 +528,6 @@
     <t>SALVATORE.ALEMANNI</t>
   </si>
   <si>
-    <t>MARCO.MAGAZZINIERE</t>
-  </si>
-  <si>
     <t>VALERIO.D'ANTONIO</t>
   </si>
   <si>
@@ -593,29 +570,47 @@
     <t>2025-12-18</t>
   </si>
   <si>
-    <t>Targa</t>
-  </si>
-  <si>
-    <t>Operatore_Precedente</t>
-  </si>
-  <si>
-    <t>Nuovo_Operatore</t>
-  </si>
-  <si>
-    <t>Data_Cambio</t>
-  </si>
-  <si>
-    <t>ANGELO.LAINO'</t>
-  </si>
-  <si>
-    <t>ROCCO.ZACCAGNINO</t>
+    <t>MULETTO CHIETI</t>
+  </si>
+  <si>
+    <t>STEFANO.CAMPLONE</t>
+  </si>
+  <si>
+    <t>ZACCAGNIGNO ROCCO</t>
+  </si>
+  <si>
+    <t>muletto vasto</t>
+  </si>
+  <si>
+    <t>ELEONORA:PERINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADIR.FINIZII </t>
+  </si>
+  <si>
+    <t>SIMONA.TURDò</t>
+  </si>
+  <si>
+    <t>DAVIDE.DI CRISTOFARO</t>
+  </si>
+  <si>
+    <t>CONSOL</t>
+  </si>
+  <si>
+    <t>CHRISTIAN.VERNA</t>
+  </si>
+  <si>
+    <t>PACE.VITO</t>
+  </si>
+  <si>
+    <t>LAURA.STANISCI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,17 +669,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -722,7 +725,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -756,6 +759,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -790,9 +794,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -965,14 +970,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B97"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,819 +993,787 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>147</v>
+      </c>
+      <c r="C60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
-      </c>
-      <c r="C61" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>175</v>
+      </c>
+      <c r="C95" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" t="s">
-        <v>189</v>
-      </c>
-      <c r="C99" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" t="s">
-        <v>189</v>
-      </c>
-      <c r="C101" t="s">
-        <v>191</v>
+        <v>175</v>
+      </c>
+      <c r="C97" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1804,56 +1782,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -1,40 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://domyssrl-my.sharepoint.com/personal/acquisti_domys_it/Documents/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42F2E4AB-8061-4A21-80EA-F363F94DD89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Stato Attuale" sheetId="1" r:id="rId1"/>
     <sheet name="Storico Passaggi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="196">
   <si>
     <t>targa</t>
   </si>
@@ -336,34 +317,49 @@
     <t>RUSSO.ZAIRA</t>
   </si>
   <si>
+    <t>MULETTO CHIETI</t>
+  </si>
+  <si>
+    <t>STEFANO.CAMPLONE</t>
+  </si>
+  <si>
     <t>ALIAJ.KLODIAN</t>
   </si>
   <si>
     <t>MARICA.SPADACCINI</t>
   </si>
   <si>
+    <t>ZACCAGNIGNO ROCCO</t>
+  </si>
+  <si>
+    <t>MONICA.LENKA</t>
+  </si>
+  <si>
+    <t>VALERY.PACELLA</t>
+  </si>
+  <si>
+    <t>SIMONA.PETRAGNANO</t>
+  </si>
+  <si>
+    <t>ALESSIA.DE LUCA</t>
+  </si>
+  <si>
+    <t>DARIO.LELLA</t>
+  </si>
+  <si>
+    <t>ALEMANNO.PIERPAOLO 28-07 TEMPORANEO</t>
+  </si>
+  <si>
+    <t>CINZIA.D'ORAZIO</t>
+  </si>
+  <si>
+    <t>DI TIZIO.VALENTINA</t>
+  </si>
+  <si>
     <t>DA ASSEGNARE</t>
   </si>
   <si>
-    <t>VALERY.PACELLA</t>
-  </si>
-  <si>
-    <t>SIMONA.PETRAGNANO</t>
-  </si>
-  <si>
-    <t>ALESSIA.DE LUCA</t>
-  </si>
-  <si>
-    <t>DARIO.LELLA</t>
-  </si>
-  <si>
-    <t>ALEMANNO.PIERPAOLO 28-07 TEMPORANEO</t>
-  </si>
-  <si>
-    <t>CINZIA.D'ORAZIO</t>
-  </si>
-  <si>
-    <t>DI TIZIO.VALENTINA</t>
+    <t>muletto vasto</t>
   </si>
   <si>
     <t>GAIA.MARTI</t>
@@ -387,54 +383,60 @@
     <t>MIMOZA.TREPSENISHTI</t>
   </si>
   <si>
+    <t>ELEONORA:PERINO</t>
+  </si>
+  <si>
+    <t>LORENZA.COLABRUNO</t>
+  </si>
+  <si>
+    <t>MICAELA.POSTIGLIONE</t>
+  </si>
+  <si>
+    <t>MARCO.VIOLA</t>
+  </si>
+  <si>
+    <t>ARSONELA-MUCA</t>
+  </si>
+  <si>
+    <t>MICHELA.VOCIONE</t>
+  </si>
+  <si>
+    <t>FEDERICA.DIREMIGIO</t>
+  </si>
+  <si>
+    <t>MARIALUCIA.DELRE</t>
+  </si>
+  <si>
+    <t>NATHALIE.BOVE</t>
+  </si>
+  <si>
+    <t>SECRIERU.NATALIA</t>
+  </si>
+  <si>
+    <t>FELICIA.FALCONIO</t>
+  </si>
+  <si>
+    <t>AURORA.TARANTINI</t>
+  </si>
+  <si>
+    <t>PIERPAOLO.ALEMANNO</t>
+  </si>
+  <si>
+    <t>ESTER.FECONDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADIR.FINIZII </t>
+  </si>
+  <si>
+    <t>LEPORATI PEREZ.MELANY LUNA</t>
+  </si>
+  <si>
+    <t>DIEGO.PANTALONE</t>
+  </si>
+  <si>
     <t>MARCELLA.TRIVARELLI</t>
   </si>
   <si>
-    <t>LORENZA.COLABRUNO</t>
-  </si>
-  <si>
-    <t>MICAELA.POSTIGLIONE</t>
-  </si>
-  <si>
-    <t>MARCO.VIOLA</t>
-  </si>
-  <si>
-    <t>ARSONELA-MUCA</t>
-  </si>
-  <si>
-    <t>MICHELA.VOCIONE</t>
-  </si>
-  <si>
-    <t>FEDERICA.DIREMIGIO</t>
-  </si>
-  <si>
-    <t>MARIALUCIA.DELRE</t>
-  </si>
-  <si>
-    <t>NATHALIE.BOVE</t>
-  </si>
-  <si>
-    <t>SECRIERU.NATALIA</t>
-  </si>
-  <si>
-    <t>FELICIA.FALCONIO</t>
-  </si>
-  <si>
-    <t>AURORA.TARANTINI</t>
-  </si>
-  <si>
-    <t>PIERPAOLO.ALEMANNO</t>
-  </si>
-  <si>
-    <t>ESTER.FECONDO</t>
-  </si>
-  <si>
-    <t>LEPORATI PEREZ.MELANY LUNA</t>
-  </si>
-  <si>
-    <t>DIEGO.PANTALONE</t>
-  </si>
-  <si>
     <t>GIADA.GIANSALVO</t>
   </si>
   <si>
@@ -444,173 +446,170 @@
     <t>LORELLAD'ORTONA</t>
   </si>
   <si>
-    <t>MONICA.LENKA</t>
+    <t>FINE RENT</t>
+  </si>
+  <si>
+    <t>SIMONA.TURDò</t>
   </si>
   <si>
     <t>NOD PESCARA</t>
   </si>
   <si>
+    <t>MULETTO FINO AL 31/01/2026 (RICONSEGNARE A MASCIARELLI AL RIENTRO)</t>
+  </si>
+  <si>
+    <t>MATTEO.CERRITETLLI</t>
+  </si>
+  <si>
+    <t>MILENA.IANNIELLO</t>
+  </si>
+  <si>
+    <t>DOINA.ATANASOAEI</t>
+  </si>
+  <si>
+    <t>DAVIDE.DI CRISTOFARO</t>
+  </si>
+  <si>
+    <t>FRANCESCO.DI.DOMENICANTONIO</t>
+  </si>
+  <si>
+    <t>NORA.CIMINO</t>
+  </si>
+  <si>
+    <t>GIANLUCA.LUCIANI</t>
+  </si>
+  <si>
+    <t>ALESSIO.PELLICCIA</t>
+  </si>
+  <si>
+    <t>NARDECCHIA CHIARA</t>
+  </si>
+  <si>
+    <t>GIUSEPPE.GRAVINA</t>
+  </si>
+  <si>
+    <t>BEATRICE.D'INNOCENZO</t>
+  </si>
+  <si>
+    <t>FRANCESCA.COTOLESSA</t>
+  </si>
+  <si>
+    <t>PITOLI.PAULA RENATA</t>
+  </si>
+  <si>
+    <t>CONSOL</t>
+  </si>
+  <si>
+    <t>ANTONINO.MICOZZI</t>
+  </si>
+  <si>
+    <t>PAOLA.VADANESCU</t>
+  </si>
+  <si>
+    <t>MOANA.DIFRANCESCO</t>
+  </si>
+  <si>
+    <t>SALVATORE.ALEMANNI</t>
+  </si>
+  <si>
+    <t>TONIA DE TOMMASO</t>
+  </si>
+  <si>
+    <t>VALERIA.BENEGIAMO</t>
+  </si>
+  <si>
+    <t>CHRISTIAN.VERNA</t>
+  </si>
+  <si>
+    <t>PACE.VITO</t>
+  </si>
+  <si>
+    <t>JESSICA.BERARDINUCCI</t>
+  </si>
+  <si>
+    <t>LAURA.STANISCI</t>
+  </si>
+  <si>
+    <t>SABINA.LANCIA</t>
+  </si>
+  <si>
+    <t>IEZZI.SERENA</t>
+  </si>
+  <si>
+    <t>MARCO.DI.NIZO</t>
+  </si>
+  <si>
+    <t>GIAMPIERO.RICUCCI</t>
+  </si>
+  <si>
+    <t>SARA.VALLERI</t>
+  </si>
+  <si>
+    <t>VALERIO.D'ANTONIO</t>
+  </si>
+  <si>
+    <t>YOEL.DESPAIGNE</t>
+  </si>
+  <si>
+    <t>ERIKA.PATELLA</t>
+  </si>
+  <si>
+    <t>SCACCIA FEDERICA</t>
+  </si>
+  <si>
+    <t>SOFIA.D'ANGELO</t>
+  </si>
+  <si>
+    <t>COCO.FEDERICO</t>
+  </si>
+  <si>
+    <t>CARAVAGGIO.MARISA</t>
+  </si>
+  <si>
+    <t>CHIARA.MANCINI</t>
+  </si>
+  <si>
+    <t>MATTEO.CAVACINI</t>
+  </si>
+  <si>
+    <t>COMPARELLI</t>
+  </si>
+  <si>
+    <t>KALOV SLAVI KRASIMIROV</t>
+  </si>
+  <si>
+    <t>AUGUSTA.CANDELORO</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
+  </si>
+  <si>
     <t>MAURIZIO.MASCIARELLI</t>
-  </si>
-  <si>
-    <t>MATTEO.CERRITETLLI</t>
-  </si>
-  <si>
-    <t>MILENA.IANNIELLO</t>
-  </si>
-  <si>
-    <t>DOINA.ATANASOAEI</t>
-  </si>
-  <si>
-    <t>AUGUSTA.CANDELORO</t>
-  </si>
-  <si>
-    <t>FRANCESCO.DI.DOMENICANTONIO</t>
-  </si>
-  <si>
-    <t>NORA.CIMINO</t>
-  </si>
-  <si>
-    <t>GIANLUCA.LUCIANI</t>
-  </si>
-  <si>
-    <t>ALESSIO.PELLICCIA</t>
-  </si>
-  <si>
-    <t>NARDECCHIA CHIARA</t>
-  </si>
-  <si>
-    <t>GIUSEPPE.GRAVINA</t>
-  </si>
-  <si>
-    <t>BEATRICE.D'INNOCENZO</t>
-  </si>
-  <si>
-    <t>FRANCESCA.COTOLESSA</t>
-  </si>
-  <si>
-    <t>PITOLI.PAULA RENATA</t>
-  </si>
-  <si>
-    <t>ANTONINO.MICOZZI</t>
-  </si>
-  <si>
-    <t>PAOLA.VADANESCU</t>
-  </si>
-  <si>
-    <t>MOANA.DIFRANCESCO</t>
-  </si>
-  <si>
-    <t>TONIA DE TOMMASO</t>
-  </si>
-  <si>
-    <t>VALERIA.BENEGIAMO</t>
-  </si>
-  <si>
-    <t>JESSICA.BERARDINUCCI</t>
-  </si>
-  <si>
-    <t>SABINA.LANCIA</t>
-  </si>
-  <si>
-    <t>IEZZI.SERENA</t>
-  </si>
-  <si>
-    <t>MARCO.DI.NIZO</t>
-  </si>
-  <si>
-    <t>GIAMPIERO.RICUCCI</t>
-  </si>
-  <si>
-    <t>SARA.VALLERI</t>
-  </si>
-  <si>
-    <t>SALVATORE.ALEMANNI</t>
-  </si>
-  <si>
-    <t>VALERIO.D'ANTONIO</t>
-  </si>
-  <si>
-    <t>YOEL.DESPAIGNE</t>
-  </si>
-  <si>
-    <t>ERIKA.PATELLA</t>
-  </si>
-  <si>
-    <t>SCACCIA FEDERICA</t>
-  </si>
-  <si>
-    <t>SOFIA.D'ANGELO</t>
-  </si>
-  <si>
-    <t>COCO.FEDERICO</t>
-  </si>
-  <si>
-    <t>CARAVAGGIO.MARISA</t>
-  </si>
-  <si>
-    <t>CHIARA.MANCINI</t>
-  </si>
-  <si>
-    <t>MATTEO.CAVACINI</t>
-  </si>
-  <si>
-    <t>COMPARELLI</t>
-  </si>
-  <si>
-    <t>KALOV SLAVI KRASIMIROV</t>
-  </si>
-  <si>
-    <t>FINE RENT</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>MULETTO CHIETI</t>
-  </si>
-  <si>
-    <t>STEFANO.CAMPLONE</t>
-  </si>
-  <si>
-    <t>ZACCAGNIGNO ROCCO</t>
-  </si>
-  <si>
-    <t>muletto vasto</t>
-  </si>
-  <si>
-    <t>ELEONORA:PERINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NADIR.FINIZII </t>
-  </si>
-  <si>
-    <t>SIMONA.TURDò</t>
-  </si>
-  <si>
-    <t>DAVIDE.DI CRISTOFARO</t>
-  </si>
-  <si>
-    <t>CONSOL</t>
-  </si>
-  <si>
-    <t>CHRISTIAN.VERNA</t>
-  </si>
-  <si>
-    <t>PACE.VITO</t>
-  </si>
-  <si>
-    <t>LAURA.STANISCI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,25 +668,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -725,7 +716,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -759,7 +750,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -794,10 +784,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -970,19 +959,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B97"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1001,66 +985,66 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1068,712 +1052,718 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="C51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C97" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1782,13 +1772,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="198">
   <si>
     <t>targa</t>
   </si>
@@ -524,85 +524,91 @@
     <t>PACE.VITO</t>
   </si>
   <si>
+    <t>DI LORETO FABIO</t>
+  </si>
+  <si>
+    <t>LAURA.STANISCI</t>
+  </si>
+  <si>
+    <t>SABINA.LANCIA</t>
+  </si>
+  <si>
+    <t>IEZZI.SERENA</t>
+  </si>
+  <si>
+    <t>MARCO.DI.NIZO</t>
+  </si>
+  <si>
+    <t>GIAMPIERO.RICUCCI</t>
+  </si>
+  <si>
+    <t>SARA.VALLERI</t>
+  </si>
+  <si>
+    <t>VALERIO.D'ANTONIO</t>
+  </si>
+  <si>
+    <t>YOEL.DESPAIGNE</t>
+  </si>
+  <si>
+    <t>ERIKA.PATELLA</t>
+  </si>
+  <si>
+    <t>SCACCIA FEDERICA</t>
+  </si>
+  <si>
+    <t>SOFIA.D'ANGELO</t>
+  </si>
+  <si>
+    <t>COCO.FEDERICO</t>
+  </si>
+  <si>
+    <t>CARAVAGGIO.MARISA</t>
+  </si>
+  <si>
+    <t>CHIARA.MANCINI</t>
+  </si>
+  <si>
+    <t>MATTEO.CAVACINI</t>
+  </si>
+  <si>
+    <t>COMPARELLI</t>
+  </si>
+  <si>
+    <t>KALOV SLAVI KRASIMIROV</t>
+  </si>
+  <si>
+    <t>AUGUSTA.CANDELORO</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
+  </si>
+  <si>
     <t>JESSICA.BERARDINUCCI</t>
   </si>
   <si>
-    <t>LAURA.STANISCI</t>
-  </si>
-  <si>
-    <t>SABINA.LANCIA</t>
-  </si>
-  <si>
-    <t>IEZZI.SERENA</t>
-  </si>
-  <si>
-    <t>MARCO.DI.NIZO</t>
-  </si>
-  <si>
-    <t>GIAMPIERO.RICUCCI</t>
-  </si>
-  <si>
-    <t>SARA.VALLERI</t>
-  </si>
-  <si>
-    <t>VALERIO.D'ANTONIO</t>
-  </si>
-  <si>
-    <t>YOEL.DESPAIGNE</t>
-  </si>
-  <si>
-    <t>ERIKA.PATELLA</t>
-  </si>
-  <si>
-    <t>SCACCIA FEDERICA</t>
-  </si>
-  <si>
-    <t>SOFIA.D'ANGELO</t>
-  </si>
-  <si>
-    <t>COCO.FEDERICO</t>
-  </si>
-  <si>
-    <t>CARAVAGGIO.MARISA</t>
-  </si>
-  <si>
-    <t>CHIARA.MANCINI</t>
-  </si>
-  <si>
-    <t>MATTEO.CAVACINI</t>
-  </si>
-  <si>
-    <t>COMPARELLI</t>
-  </si>
-  <si>
-    <t>KALOV SLAVI KRASIMIROV</t>
-  </si>
-  <si>
-    <t>AUGUSTA.CANDELORO</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>Targa</t>
-  </si>
-  <si>
-    <t>Operatore_Precedente</t>
-  </si>
-  <si>
-    <t>Nuovo_Operatore</t>
-  </si>
-  <si>
-    <t>Data_Cambio</t>
-  </si>
-  <si>
-    <t>MAURIZIO.MASCIARELLI</t>
+    <t>DIMESSA - RICONSEGNA AUTO</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1502,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1536,7 +1542,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1560,7 +1566,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1568,7 +1574,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1584,15 +1590,18 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1600,7 +1609,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1608,7 +1617,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1616,7 +1625,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -1781,44 +1790,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="198">
   <si>
     <t>targa</t>
   </si>
@@ -515,100 +515,100 @@
     <t>TONIA DE TOMMASO</t>
   </si>
   <si>
+    <t>DA ASSEGNARE (BENEGIAMO MALATTIA LUNGA)</t>
+  </si>
+  <si>
+    <t>CHRISTIAN.VERNA</t>
+  </si>
+  <si>
+    <t>PACE.VITO</t>
+  </si>
+  <si>
+    <t>DI LORETO FABIO</t>
+  </si>
+  <si>
+    <t>LAURA.STANISCI</t>
+  </si>
+  <si>
+    <t>SABINA.LANCIA</t>
+  </si>
+  <si>
+    <t>IEZZI.SERENA</t>
+  </si>
+  <si>
+    <t>MARCO.DI.NIZO</t>
+  </si>
+  <si>
+    <t>GIAMPIERO.RICUCCI</t>
+  </si>
+  <si>
+    <t>SARA.VALLERI</t>
+  </si>
+  <si>
+    <t>VALERIO.D'ANTONIO</t>
+  </si>
+  <si>
+    <t>YOEL.DESPAIGNE</t>
+  </si>
+  <si>
+    <t>ERIKA.PATELLA</t>
+  </si>
+  <si>
+    <t>SCACCIA FEDERICA</t>
+  </si>
+  <si>
+    <t>SOFIA.D'ANGELO</t>
+  </si>
+  <si>
+    <t>COCO.FEDERICO</t>
+  </si>
+  <si>
+    <t>CARAVAGGIO.MARISA</t>
+  </si>
+  <si>
+    <t>CHIARA.MANCINI</t>
+  </si>
+  <si>
+    <t>MATTEO.CAVACINI</t>
+  </si>
+  <si>
+    <t>COMPARELLI</t>
+  </si>
+  <si>
+    <t>KALOV SLAVI KRASIMIROV</t>
+  </si>
+  <si>
+    <t>AUGUSTA.CANDELORO</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
+  </si>
+  <si>
     <t>VALERIA.BENEGIAMO</t>
-  </si>
-  <si>
-    <t>CHRISTIAN.VERNA</t>
-  </si>
-  <si>
-    <t>PACE.VITO</t>
-  </si>
-  <si>
-    <t>DI LORETO FABIO</t>
-  </si>
-  <si>
-    <t>LAURA.STANISCI</t>
-  </si>
-  <si>
-    <t>SABINA.LANCIA</t>
-  </si>
-  <si>
-    <t>IEZZI.SERENA</t>
-  </si>
-  <si>
-    <t>MARCO.DI.NIZO</t>
-  </si>
-  <si>
-    <t>GIAMPIERO.RICUCCI</t>
-  </si>
-  <si>
-    <t>SARA.VALLERI</t>
-  </si>
-  <si>
-    <t>VALERIO.D'ANTONIO</t>
-  </si>
-  <si>
-    <t>YOEL.DESPAIGNE</t>
-  </si>
-  <si>
-    <t>ERIKA.PATELLA</t>
-  </si>
-  <si>
-    <t>SCACCIA FEDERICA</t>
-  </si>
-  <si>
-    <t>SOFIA.D'ANGELO</t>
-  </si>
-  <si>
-    <t>COCO.FEDERICO</t>
-  </si>
-  <si>
-    <t>CARAVAGGIO.MARISA</t>
-  </si>
-  <si>
-    <t>CHIARA.MANCINI</t>
-  </si>
-  <si>
-    <t>MATTEO.CAVACINI</t>
-  </si>
-  <si>
-    <t>COMPARELLI</t>
-  </si>
-  <si>
-    <t>KALOV SLAVI KRASIMIROV</t>
-  </si>
-  <si>
-    <t>AUGUSTA.CANDELORO</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>Targa</t>
-  </si>
-  <si>
-    <t>Operatore_Precedente</t>
-  </si>
-  <si>
-    <t>Nuovo_Operatore</t>
-  </si>
-  <si>
-    <t>Data_Cambio</t>
-  </si>
-  <si>
-    <t>JESSICA.BERARDINUCCI</t>
-  </si>
-  <si>
-    <t>DIMESSA - RICONSEGNA AUTO</t>
   </si>
 </sst>
 </file>
@@ -1565,6 +1565,9 @@
       <c r="B72" t="s">
         <v>166</v>
       </c>
+      <c r="C72" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
@@ -1598,7 +1601,7 @@
         <v>169</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1782,7 +1785,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1790,43 +1793,29 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" t="s">
         <v>191</v>
       </c>
     </row>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="199">
   <si>
     <t>targa</t>
   </si>
@@ -317,298 +317,301 @@
     <t>RUSSO.ZAIRA</t>
   </si>
   <si>
+    <t>MEZZANOTTE SABRINA</t>
+  </si>
+  <si>
+    <t>STEFANO.CAMPLONE</t>
+  </si>
+  <si>
+    <t>ALIAJ.KLODIAN</t>
+  </si>
+  <si>
+    <t>MARICA.SPADACCINI</t>
+  </si>
+  <si>
+    <t>ZACCAGNIGNO ROCCO</t>
+  </si>
+  <si>
+    <t>MONICA.LENKA</t>
+  </si>
+  <si>
+    <t>VALERY.PACELLA</t>
+  </si>
+  <si>
+    <t>SIMONA.PETRAGNANO</t>
+  </si>
+  <si>
+    <t>ALESSIA.DE LUCA</t>
+  </si>
+  <si>
+    <t>DARIO.LELLA</t>
+  </si>
+  <si>
+    <t>ALEMANNO.PIERPAOLO 28-07 TEMPORANEO</t>
+  </si>
+  <si>
+    <t>CINZIA.D'ORAZIO</t>
+  </si>
+  <si>
+    <t>DI TIZIO.VALENTINA</t>
+  </si>
+  <si>
+    <t>DA ASSEGNARE</t>
+  </si>
+  <si>
+    <t>muletto vasto</t>
+  </si>
+  <si>
+    <t>GAIA.MARTI</t>
+  </si>
+  <si>
+    <t>DAVIDE.BONFITTO</t>
+  </si>
+  <si>
+    <t>JANE.LUCIANO</t>
+  </si>
+  <si>
+    <t>MARATEA.FELICIA</t>
+  </si>
+  <si>
+    <t>ANTONIO.BRUNO</t>
+  </si>
+  <si>
+    <t>MARIA.LUCIANO</t>
+  </si>
+  <si>
+    <t>MIMOZA.TREPSENISHTI</t>
+  </si>
+  <si>
+    <t>ELEONORA:PERINO</t>
+  </si>
+  <si>
+    <t>LORENZA.COLABRUNO</t>
+  </si>
+  <si>
+    <t>MICAELA.POSTIGLIONE</t>
+  </si>
+  <si>
+    <t>MARCO.VIOLA</t>
+  </si>
+  <si>
+    <t>ARSONELA-MUCA</t>
+  </si>
+  <si>
+    <t>MICHELA.VOCIONE</t>
+  </si>
+  <si>
+    <t>FEDERICA.DIREMIGIO</t>
+  </si>
+  <si>
+    <t>MARIALUCIA.DELRE</t>
+  </si>
+  <si>
+    <t>NATHALIE.BOVE</t>
+  </si>
+  <si>
+    <t>SECRIERU.NATALIA</t>
+  </si>
+  <si>
+    <t>FELICIA.FALCONIO</t>
+  </si>
+  <si>
+    <t>AURORA.TARANTINI</t>
+  </si>
+  <si>
+    <t>PIERPAOLO.ALEMANNO</t>
+  </si>
+  <si>
+    <t>ESTER.FECONDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADIR.FINIZII </t>
+  </si>
+  <si>
+    <t>LEPORATI PEREZ.MELANY LUNA</t>
+  </si>
+  <si>
+    <t>DIEGO.PANTALONE</t>
+  </si>
+  <si>
+    <t>MARCELLA.TRIVARELLI</t>
+  </si>
+  <si>
+    <t>GIADA.GIANSALVO</t>
+  </si>
+  <si>
+    <t>GIULIA.RENZETTI</t>
+  </si>
+  <si>
+    <t>LORELLAD'ORTONA</t>
+  </si>
+  <si>
+    <t>FINE RENT</t>
+  </si>
+  <si>
+    <t>SIMONA.TURDò</t>
+  </si>
+  <si>
+    <t>NOD PESCARA</t>
+  </si>
+  <si>
+    <t>MULETTO FINO AL 31/01/2026 (RICONSEGNARE A MASCIARELLI AL RIENTRO)</t>
+  </si>
+  <si>
+    <t>MATTEO.CERRITETLLI</t>
+  </si>
+  <si>
+    <t>MILENA.IANNIELLO</t>
+  </si>
+  <si>
+    <t>DOINA.ATANASOAEI</t>
+  </si>
+  <si>
+    <t>DAVIDE.DI CRISTOFARO</t>
+  </si>
+  <si>
+    <t>FRANCESCO.DI.DOMENICANTONIO</t>
+  </si>
+  <si>
+    <t>NORA.CIMINO</t>
+  </si>
+  <si>
+    <t>GIANLUCA.LUCIANI</t>
+  </si>
+  <si>
+    <t>ALESSIO.PELLICCIA</t>
+  </si>
+  <si>
+    <t>NARDECCHIA CHIARA</t>
+  </si>
+  <si>
+    <t>GIUSEPPE.GRAVINA</t>
+  </si>
+  <si>
+    <t>BEATRICE.D'INNOCENZO</t>
+  </si>
+  <si>
+    <t>FRANCESCA.COTOLESSA</t>
+  </si>
+  <si>
+    <t>PITOLI.PAULA RENATA</t>
+  </si>
+  <si>
+    <t>CONSOL</t>
+  </si>
+  <si>
+    <t>ANTONINO.MICOZZI</t>
+  </si>
+  <si>
+    <t>PAOLA.VADANESCU</t>
+  </si>
+  <si>
+    <t>MOANA.DIFRANCESCO</t>
+  </si>
+  <si>
+    <t>SALVATORE.ALEMANNI</t>
+  </si>
+  <si>
+    <t>TONIA DE TOMMASO</t>
+  </si>
+  <si>
+    <t>DA ASSEGNARE (BENEGIAMO MALATTIA LUNGA)</t>
+  </si>
+  <si>
+    <t>CHRISTIAN.VERNA</t>
+  </si>
+  <si>
+    <t>PACE.VITO</t>
+  </si>
+  <si>
+    <t>DI LORETO FABIO</t>
+  </si>
+  <si>
+    <t>LAURA.STANISCI</t>
+  </si>
+  <si>
+    <t>SABINA.LANCIA</t>
+  </si>
+  <si>
+    <t>IEZZI.SERENA</t>
+  </si>
+  <si>
+    <t>MARCO.DI.NIZO</t>
+  </si>
+  <si>
+    <t>GIAMPIERO.RICUCCI</t>
+  </si>
+  <si>
+    <t>SARA.VALLERI</t>
+  </si>
+  <si>
+    <t>VALERIO.D'ANTONIO</t>
+  </si>
+  <si>
+    <t>YOEL.DESPAIGNE</t>
+  </si>
+  <si>
+    <t>ERIKA.PATELLA</t>
+  </si>
+  <si>
+    <t>SCACCIA FEDERICA</t>
+  </si>
+  <si>
+    <t>SOFIA.D'ANGELO</t>
+  </si>
+  <si>
+    <t>COCO.FEDERICO</t>
+  </si>
+  <si>
+    <t>CARAVAGGIO.MARISA</t>
+  </si>
+  <si>
+    <t>CHIARA.MANCINI</t>
+  </si>
+  <si>
+    <t>MATTEO.CAVACINI</t>
+  </si>
+  <si>
+    <t>COMPARELLI</t>
+  </si>
+  <si>
+    <t>KALOV SLAVI KRASIMIROV</t>
+  </si>
+  <si>
+    <t>AUGUSTA.CANDELORO</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
+  </si>
+  <si>
+    <t>VALERIA.BENEGIAMO</t>
+  </si>
+  <si>
     <t>MULETTO CHIETI</t>
-  </si>
-  <si>
-    <t>STEFANO.CAMPLONE</t>
-  </si>
-  <si>
-    <t>ALIAJ.KLODIAN</t>
-  </si>
-  <si>
-    <t>MARICA.SPADACCINI</t>
-  </si>
-  <si>
-    <t>ZACCAGNIGNO ROCCO</t>
-  </si>
-  <si>
-    <t>MONICA.LENKA</t>
-  </si>
-  <si>
-    <t>VALERY.PACELLA</t>
-  </si>
-  <si>
-    <t>SIMONA.PETRAGNANO</t>
-  </si>
-  <si>
-    <t>ALESSIA.DE LUCA</t>
-  </si>
-  <si>
-    <t>DARIO.LELLA</t>
-  </si>
-  <si>
-    <t>ALEMANNO.PIERPAOLO 28-07 TEMPORANEO</t>
-  </si>
-  <si>
-    <t>CINZIA.D'ORAZIO</t>
-  </si>
-  <si>
-    <t>DI TIZIO.VALENTINA</t>
-  </si>
-  <si>
-    <t>DA ASSEGNARE</t>
-  </si>
-  <si>
-    <t>muletto vasto</t>
-  </si>
-  <si>
-    <t>GAIA.MARTI</t>
-  </si>
-  <si>
-    <t>DAVIDE.BONFITTO</t>
-  </si>
-  <si>
-    <t>JANE.LUCIANO</t>
-  </si>
-  <si>
-    <t>MARATEA.FELICIA</t>
-  </si>
-  <si>
-    <t>ANTONIO.BRUNO</t>
-  </si>
-  <si>
-    <t>MARIA.LUCIANO</t>
-  </si>
-  <si>
-    <t>MIMOZA.TREPSENISHTI</t>
-  </si>
-  <si>
-    <t>ELEONORA:PERINO</t>
-  </si>
-  <si>
-    <t>LORENZA.COLABRUNO</t>
-  </si>
-  <si>
-    <t>MICAELA.POSTIGLIONE</t>
-  </si>
-  <si>
-    <t>MARCO.VIOLA</t>
-  </si>
-  <si>
-    <t>ARSONELA-MUCA</t>
-  </si>
-  <si>
-    <t>MICHELA.VOCIONE</t>
-  </si>
-  <si>
-    <t>FEDERICA.DIREMIGIO</t>
-  </si>
-  <si>
-    <t>MARIALUCIA.DELRE</t>
-  </si>
-  <si>
-    <t>NATHALIE.BOVE</t>
-  </si>
-  <si>
-    <t>SECRIERU.NATALIA</t>
-  </si>
-  <si>
-    <t>FELICIA.FALCONIO</t>
-  </si>
-  <si>
-    <t>AURORA.TARANTINI</t>
-  </si>
-  <si>
-    <t>PIERPAOLO.ALEMANNO</t>
-  </si>
-  <si>
-    <t>ESTER.FECONDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NADIR.FINIZII </t>
-  </si>
-  <si>
-    <t>LEPORATI PEREZ.MELANY LUNA</t>
-  </si>
-  <si>
-    <t>DIEGO.PANTALONE</t>
-  </si>
-  <si>
-    <t>MARCELLA.TRIVARELLI</t>
-  </si>
-  <si>
-    <t>GIADA.GIANSALVO</t>
-  </si>
-  <si>
-    <t>GIULIA.RENZETTI</t>
-  </si>
-  <si>
-    <t>LORELLAD'ORTONA</t>
-  </si>
-  <si>
-    <t>FINE RENT</t>
-  </si>
-  <si>
-    <t>SIMONA.TURDò</t>
-  </si>
-  <si>
-    <t>NOD PESCARA</t>
-  </si>
-  <si>
-    <t>MULETTO FINO AL 31/01/2026 (RICONSEGNARE A MASCIARELLI AL RIENTRO)</t>
-  </si>
-  <si>
-    <t>MATTEO.CERRITETLLI</t>
-  </si>
-  <si>
-    <t>MILENA.IANNIELLO</t>
-  </si>
-  <si>
-    <t>DOINA.ATANASOAEI</t>
-  </si>
-  <si>
-    <t>DAVIDE.DI CRISTOFARO</t>
-  </si>
-  <si>
-    <t>FRANCESCO.DI.DOMENICANTONIO</t>
-  </si>
-  <si>
-    <t>NORA.CIMINO</t>
-  </si>
-  <si>
-    <t>GIANLUCA.LUCIANI</t>
-  </si>
-  <si>
-    <t>ALESSIO.PELLICCIA</t>
-  </si>
-  <si>
-    <t>NARDECCHIA CHIARA</t>
-  </si>
-  <si>
-    <t>GIUSEPPE.GRAVINA</t>
-  </si>
-  <si>
-    <t>BEATRICE.D'INNOCENZO</t>
-  </si>
-  <si>
-    <t>FRANCESCA.COTOLESSA</t>
-  </si>
-  <si>
-    <t>PITOLI.PAULA RENATA</t>
-  </si>
-  <si>
-    <t>CONSOL</t>
-  </si>
-  <si>
-    <t>ANTONINO.MICOZZI</t>
-  </si>
-  <si>
-    <t>PAOLA.VADANESCU</t>
-  </si>
-  <si>
-    <t>MOANA.DIFRANCESCO</t>
-  </si>
-  <si>
-    <t>SALVATORE.ALEMANNI</t>
-  </si>
-  <si>
-    <t>TONIA DE TOMMASO</t>
-  </si>
-  <si>
-    <t>DA ASSEGNARE (BENEGIAMO MALATTIA LUNGA)</t>
-  </si>
-  <si>
-    <t>CHRISTIAN.VERNA</t>
-  </si>
-  <si>
-    <t>PACE.VITO</t>
-  </si>
-  <si>
-    <t>DI LORETO FABIO</t>
-  </si>
-  <si>
-    <t>LAURA.STANISCI</t>
-  </si>
-  <si>
-    <t>SABINA.LANCIA</t>
-  </si>
-  <si>
-    <t>IEZZI.SERENA</t>
-  </si>
-  <si>
-    <t>MARCO.DI.NIZO</t>
-  </si>
-  <si>
-    <t>GIAMPIERO.RICUCCI</t>
-  </si>
-  <si>
-    <t>SARA.VALLERI</t>
-  </si>
-  <si>
-    <t>VALERIO.D'ANTONIO</t>
-  </si>
-  <si>
-    <t>YOEL.DESPAIGNE</t>
-  </si>
-  <si>
-    <t>ERIKA.PATELLA</t>
-  </si>
-  <si>
-    <t>SCACCIA FEDERICA</t>
-  </si>
-  <si>
-    <t>SOFIA.D'ANGELO</t>
-  </si>
-  <si>
-    <t>COCO.FEDERICO</t>
-  </si>
-  <si>
-    <t>CARAVAGGIO.MARISA</t>
-  </si>
-  <si>
-    <t>CHIARA.MANCINI</t>
-  </si>
-  <si>
-    <t>MATTEO.CAVACINI</t>
-  </si>
-  <si>
-    <t>COMPARELLI</t>
-  </si>
-  <si>
-    <t>KALOV SLAVI KRASIMIROV</t>
-  </si>
-  <si>
-    <t>AUGUSTA.CANDELORO</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>Targa</t>
-  </si>
-  <si>
-    <t>Operatore_Precedente</t>
-  </si>
-  <si>
-    <t>Nuovo_Operatore</t>
-  </si>
-  <si>
-    <t>Data_Cambio</t>
-  </si>
-  <si>
-    <t>VALERIA.BENEGIAMO</t>
   </si>
 </sst>
 </file>
@@ -998,6 +1001,9 @@
       <c r="B3" t="s">
         <v>100</v>
       </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
@@ -1031,7 +1037,7 @@
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1114,7 +1120,7 @@
         <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1317,7 +1323,7 @@
         <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1392,7 +1398,7 @@
         <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1467,7 +1473,7 @@
         <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1566,7 +1572,7 @@
         <v>166</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1756,7 +1762,7 @@
         <v>143</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1775,7 +1781,7 @@
         <v>143</v>
       </c>
       <c r="C97" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1785,7 +1791,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1816,7 +1822,21 @@
         <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="199">
   <si>
     <t>targa</t>
   </si>
@@ -455,163 +455,163 @@
     <t>NOD PESCARA</t>
   </si>
   <si>
+    <t>CANDELORO AUGUSTA</t>
+  </si>
+  <si>
+    <t>MATTEO.CERRITETLLI</t>
+  </si>
+  <si>
+    <t>MILENA.IANNIELLO</t>
+  </si>
+  <si>
+    <t>DOINA.ATANASOAEI</t>
+  </si>
+  <si>
+    <t>DAVIDE.DI CRISTOFARO</t>
+  </si>
+  <si>
+    <t>FRANCESCO.DI.DOMENICANTONIO</t>
+  </si>
+  <si>
+    <t>NORA.CIMINO</t>
+  </si>
+  <si>
+    <t>GIANLUCA.LUCIANI</t>
+  </si>
+  <si>
+    <t>ALESSIO.PELLICCIA</t>
+  </si>
+  <si>
+    <t>NARDECCHIA CHIARA</t>
+  </si>
+  <si>
+    <t>GIUSEPPE.GRAVINA</t>
+  </si>
+  <si>
+    <t>BEATRICE.D'INNOCENZO</t>
+  </si>
+  <si>
+    <t>FRANCESCA.COTOLESSA</t>
+  </si>
+  <si>
+    <t>PITOLI.PAULA RENATA</t>
+  </si>
+  <si>
+    <t>CONSOL</t>
+  </si>
+  <si>
+    <t>ANTONINO.MICOZZI</t>
+  </si>
+  <si>
+    <t>PAOLA.VADANESCU</t>
+  </si>
+  <si>
+    <t>MOANA.DIFRANCESCO</t>
+  </si>
+  <si>
+    <t>SALVATORE.ALEMANNI</t>
+  </si>
+  <si>
+    <t>TONIA DE TOMMASO</t>
+  </si>
+  <si>
+    <t>DA ASSEGNARE (BENEGIAMO MALATTIA LUNGA)</t>
+  </si>
+  <si>
+    <t>CHRISTIAN.VERNA</t>
+  </si>
+  <si>
+    <t>PACE.VITO</t>
+  </si>
+  <si>
+    <t>DI LORETO FABIO</t>
+  </si>
+  <si>
+    <t>LAURA.STANISCI</t>
+  </si>
+  <si>
+    <t>SABINA.LANCIA</t>
+  </si>
+  <si>
+    <t>IEZZI.SERENA</t>
+  </si>
+  <si>
+    <t>MARCO.DI.NIZO</t>
+  </si>
+  <si>
+    <t>GIAMPIERO.RICUCCI</t>
+  </si>
+  <si>
+    <t>SARA.VALLERI</t>
+  </si>
+  <si>
+    <t>VALERIO.D'ANTONIO</t>
+  </si>
+  <si>
+    <t>YOEL.DESPAIGNE</t>
+  </si>
+  <si>
+    <t>ERIKA.PATELLA</t>
+  </si>
+  <si>
+    <t>SCACCIA FEDERICA</t>
+  </si>
+  <si>
+    <t>SOFIA.D'ANGELO</t>
+  </si>
+  <si>
+    <t>COCO.FEDERICO</t>
+  </si>
+  <si>
+    <t>CARAVAGGIO.MARISA</t>
+  </si>
+  <si>
+    <t>CHIARA.MANCINI</t>
+  </si>
+  <si>
+    <t>MATTEO.CAVACINI</t>
+  </si>
+  <si>
+    <t>COMPARELLI</t>
+  </si>
+  <si>
+    <t>KALOV SLAVI KRASIMIROV</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
+  </si>
+  <si>
+    <t>AUGUSTA.CANDELORO</t>
+  </si>
+  <si>
     <t>MULETTO FINO AL 31/01/2026 (RICONSEGNARE A MASCIARELLI AL RIENTRO)</t>
-  </si>
-  <si>
-    <t>MATTEO.CERRITETLLI</t>
-  </si>
-  <si>
-    <t>MILENA.IANNIELLO</t>
-  </si>
-  <si>
-    <t>DOINA.ATANASOAEI</t>
-  </si>
-  <si>
-    <t>DAVIDE.DI CRISTOFARO</t>
-  </si>
-  <si>
-    <t>FRANCESCO.DI.DOMENICANTONIO</t>
-  </si>
-  <si>
-    <t>NORA.CIMINO</t>
-  </si>
-  <si>
-    <t>GIANLUCA.LUCIANI</t>
-  </si>
-  <si>
-    <t>ALESSIO.PELLICCIA</t>
-  </si>
-  <si>
-    <t>NARDECCHIA CHIARA</t>
-  </si>
-  <si>
-    <t>GIUSEPPE.GRAVINA</t>
-  </si>
-  <si>
-    <t>BEATRICE.D'INNOCENZO</t>
-  </si>
-  <si>
-    <t>FRANCESCA.COTOLESSA</t>
-  </si>
-  <si>
-    <t>PITOLI.PAULA RENATA</t>
-  </si>
-  <si>
-    <t>CONSOL</t>
-  </si>
-  <si>
-    <t>ANTONINO.MICOZZI</t>
-  </si>
-  <si>
-    <t>PAOLA.VADANESCU</t>
-  </si>
-  <si>
-    <t>MOANA.DIFRANCESCO</t>
-  </si>
-  <si>
-    <t>SALVATORE.ALEMANNI</t>
-  </si>
-  <si>
-    <t>TONIA DE TOMMASO</t>
-  </si>
-  <si>
-    <t>DA ASSEGNARE (BENEGIAMO MALATTIA LUNGA)</t>
-  </si>
-  <si>
-    <t>CHRISTIAN.VERNA</t>
-  </si>
-  <si>
-    <t>PACE.VITO</t>
-  </si>
-  <si>
-    <t>DI LORETO FABIO</t>
-  </si>
-  <si>
-    <t>LAURA.STANISCI</t>
-  </si>
-  <si>
-    <t>SABINA.LANCIA</t>
-  </si>
-  <si>
-    <t>IEZZI.SERENA</t>
-  </si>
-  <si>
-    <t>MARCO.DI.NIZO</t>
-  </si>
-  <si>
-    <t>GIAMPIERO.RICUCCI</t>
-  </si>
-  <si>
-    <t>SARA.VALLERI</t>
-  </si>
-  <si>
-    <t>VALERIO.D'ANTONIO</t>
-  </si>
-  <si>
-    <t>YOEL.DESPAIGNE</t>
-  </si>
-  <si>
-    <t>ERIKA.PATELLA</t>
-  </si>
-  <si>
-    <t>SCACCIA FEDERICA</t>
-  </si>
-  <si>
-    <t>SOFIA.D'ANGELO</t>
-  </si>
-  <si>
-    <t>COCO.FEDERICO</t>
-  </si>
-  <si>
-    <t>CARAVAGGIO.MARISA</t>
-  </si>
-  <si>
-    <t>CHIARA.MANCINI</t>
-  </si>
-  <si>
-    <t>MATTEO.CAVACINI</t>
-  </si>
-  <si>
-    <t>COMPARELLI</t>
-  </si>
-  <si>
-    <t>KALOV SLAVI KRASIMIROV</t>
-  </si>
-  <si>
-    <t>AUGUSTA.CANDELORO</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>Targa</t>
-  </si>
-  <si>
-    <t>Operatore_Precedente</t>
-  </si>
-  <si>
-    <t>Nuovo_Operatore</t>
-  </si>
-  <si>
-    <t>Data_Cambio</t>
-  </si>
-  <si>
-    <t>VALERIA.BENEGIAMO</t>
-  </si>
-  <si>
-    <t>MULETTO CHIETI</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1002,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1120,7 +1120,7 @@
         <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1398,7 +1398,7 @@
         <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1473,7 +1473,7 @@
         <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1572,7 +1572,7 @@
         <v>166</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1762,7 +1762,7 @@
         <v>143</v>
       </c>
       <c r="C95" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1770,7 +1770,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>143</v>
+      </c>
+      <c r="C96" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1781,7 +1784,7 @@
         <v>143</v>
       </c>
       <c r="C97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1813,30 +1816,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>198</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="199">
   <si>
     <t>targa</t>
   </si>
@@ -356,81 +356,84 @@
     <t>DI TIZIO.VALENTINA</t>
   </si>
   <si>
+    <t>ELENA DELL'ARCIPRETE</t>
+  </si>
+  <si>
+    <t>muletto vasto</t>
+  </si>
+  <si>
+    <t>GAIA.MARTI</t>
+  </si>
+  <si>
+    <t>DAVIDE.BONFITTO</t>
+  </si>
+  <si>
+    <t>JANE.LUCIANO</t>
+  </si>
+  <si>
+    <t>MARATEA.FELICIA</t>
+  </si>
+  <si>
+    <t>ANTONIO.BRUNO</t>
+  </si>
+  <si>
+    <t>MARIA.LUCIANO</t>
+  </si>
+  <si>
+    <t>MIMOZA.TREPSENISHTI</t>
+  </si>
+  <si>
+    <t>ELEONORA:PERINO</t>
+  </si>
+  <si>
+    <t>LORENZA.COLABRUNO</t>
+  </si>
+  <si>
+    <t>MICAELA.POSTIGLIONE</t>
+  </si>
+  <si>
+    <t>MARCO.VIOLA</t>
+  </si>
+  <si>
+    <t>ARSONELA-MUCA</t>
+  </si>
+  <si>
+    <t>MICHELA.VOCIONE</t>
+  </si>
+  <si>
+    <t>FEDERICA.DIREMIGIO</t>
+  </si>
+  <si>
+    <t>MARIALUCIA.DELRE</t>
+  </si>
+  <si>
+    <t>NATHALIE.BOVE</t>
+  </si>
+  <si>
+    <t>SECRIERU.NATALIA</t>
+  </si>
+  <si>
+    <t>FELICIA.FALCONIO</t>
+  </si>
+  <si>
+    <t>AURORA.TARANTINI</t>
+  </si>
+  <si>
+    <t>PIERPAOLO.ALEMANNO</t>
+  </si>
+  <si>
+    <t>ESTER.FECONDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADIR.FINIZII </t>
+  </si>
+  <si>
+    <t>LEPORATI PEREZ.MELANY LUNA</t>
+  </si>
+  <si>
     <t>DA ASSEGNARE</t>
   </si>
   <si>
-    <t>muletto vasto</t>
-  </si>
-  <si>
-    <t>GAIA.MARTI</t>
-  </si>
-  <si>
-    <t>DAVIDE.BONFITTO</t>
-  </si>
-  <si>
-    <t>JANE.LUCIANO</t>
-  </si>
-  <si>
-    <t>MARATEA.FELICIA</t>
-  </si>
-  <si>
-    <t>ANTONIO.BRUNO</t>
-  </si>
-  <si>
-    <t>MARIA.LUCIANO</t>
-  </si>
-  <si>
-    <t>MIMOZA.TREPSENISHTI</t>
-  </si>
-  <si>
-    <t>ELEONORA:PERINO</t>
-  </si>
-  <si>
-    <t>LORENZA.COLABRUNO</t>
-  </si>
-  <si>
-    <t>MICAELA.POSTIGLIONE</t>
-  </si>
-  <si>
-    <t>MARCO.VIOLA</t>
-  </si>
-  <si>
-    <t>ARSONELA-MUCA</t>
-  </si>
-  <si>
-    <t>MICHELA.VOCIONE</t>
-  </si>
-  <si>
-    <t>FEDERICA.DIREMIGIO</t>
-  </si>
-  <si>
-    <t>MARIALUCIA.DELRE</t>
-  </si>
-  <si>
-    <t>NATHALIE.BOVE</t>
-  </si>
-  <si>
-    <t>SECRIERU.NATALIA</t>
-  </si>
-  <si>
-    <t>FELICIA.FALCONIO</t>
-  </si>
-  <si>
-    <t>AURORA.TARANTINI</t>
-  </si>
-  <si>
-    <t>PIERPAOLO.ALEMANNO</t>
-  </si>
-  <si>
-    <t>ESTER.FECONDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NADIR.FINIZII </t>
-  </si>
-  <si>
-    <t>LEPORATI PEREZ.MELANY LUNA</t>
-  </si>
-  <si>
     <t>DIEGO.PANTALONE</t>
   </si>
   <si>
@@ -521,97 +524,94 @@
     <t>CHRISTIAN.VERNA</t>
   </si>
   <si>
+    <t>PACELLA VALERY</t>
+  </si>
+  <si>
+    <t>DI LORETO FABIO</t>
+  </si>
+  <si>
+    <t>LAURA.STANISCI</t>
+  </si>
+  <si>
+    <t>SABINA.LANCIA</t>
+  </si>
+  <si>
+    <t>IEZZI.SERENA</t>
+  </si>
+  <si>
+    <t>MARCO.DI.NIZO</t>
+  </si>
+  <si>
+    <t>GIAMPIERO.RICUCCI</t>
+  </si>
+  <si>
+    <t>SARA.VALLERI</t>
+  </si>
+  <si>
+    <t>VALERIO.D'ANTONIO</t>
+  </si>
+  <si>
+    <t>YOEL.DESPAIGNE</t>
+  </si>
+  <si>
+    <t>ERIKA.PATELLA</t>
+  </si>
+  <si>
+    <t>SCACCIA FEDERICA</t>
+  </si>
+  <si>
+    <t>SOFIA.D'ANGELO</t>
+  </si>
+  <si>
+    <t>COCO.FEDERICO</t>
+  </si>
+  <si>
+    <t>CARAVAGGIO.MARISA</t>
+  </si>
+  <si>
+    <t>CHIARA.MANCINI</t>
+  </si>
+  <si>
+    <t>MATTEO.CAVACINI</t>
+  </si>
+  <si>
+    <t>COMPARELLI</t>
+  </si>
+  <si>
+    <t>KALOV SLAVI KRASIMIROV</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
+  </si>
+  <si>
     <t>PACE.VITO</t>
-  </si>
-  <si>
-    <t>DI LORETO FABIO</t>
-  </si>
-  <si>
-    <t>LAURA.STANISCI</t>
-  </si>
-  <si>
-    <t>SABINA.LANCIA</t>
-  </si>
-  <si>
-    <t>IEZZI.SERENA</t>
-  </si>
-  <si>
-    <t>MARCO.DI.NIZO</t>
-  </si>
-  <si>
-    <t>GIAMPIERO.RICUCCI</t>
-  </si>
-  <si>
-    <t>SARA.VALLERI</t>
-  </si>
-  <si>
-    <t>VALERIO.D'ANTONIO</t>
-  </si>
-  <si>
-    <t>YOEL.DESPAIGNE</t>
-  </si>
-  <si>
-    <t>ERIKA.PATELLA</t>
-  </si>
-  <si>
-    <t>SCACCIA FEDERICA</t>
-  </si>
-  <si>
-    <t>SOFIA.D'ANGELO</t>
-  </si>
-  <si>
-    <t>COCO.FEDERICO</t>
-  </si>
-  <si>
-    <t>CARAVAGGIO.MARISA</t>
-  </si>
-  <si>
-    <t>CHIARA.MANCINI</t>
-  </si>
-  <si>
-    <t>MATTEO.CAVACINI</t>
-  </si>
-  <si>
-    <t>COMPARELLI</t>
-  </si>
-  <si>
-    <t>KALOV SLAVI KRASIMIROV</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>Targa</t>
-  </si>
-  <si>
-    <t>Operatore_Precedente</t>
-  </si>
-  <si>
-    <t>Nuovo_Operatore</t>
-  </si>
-  <si>
-    <t>Data_Cambio</t>
-  </si>
-  <si>
-    <t>AUGUSTA.CANDELORO</t>
-  </si>
-  <si>
-    <t>MULETTO FINO AL 31/01/2026 (RICONSEGNARE A MASCIARELLI AL RIENTRO)</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1002,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1120,7 +1120,7 @@
         <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1331,7 +1331,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1347,7 +1347,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1355,7 +1355,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1363,7 +1363,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1371,7 +1371,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1387,7 +1387,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1395,10 +1395,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1414,7 +1414,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1430,7 +1430,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1438,7 +1438,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1446,7 +1446,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1454,7 +1454,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1462,7 +1462,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1470,10 +1470,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1481,7 +1481,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1497,7 +1497,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1505,7 +1505,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1513,7 +1513,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1529,7 +1529,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1545,7 +1545,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1561,7 +1561,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1569,10 +1569,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1588,7 +1588,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1596,7 +1596,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="C75" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1604,10 +1607,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1615,7 +1618,7 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1623,7 +1626,7 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1631,7 +1634,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1639,7 +1642,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1647,7 +1650,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1655,7 +1658,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1663,7 +1666,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1671,7 +1674,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1679,7 +1682,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1687,7 +1690,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1695,7 +1698,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1703,7 +1706,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1711,7 +1714,7 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1719,7 +1722,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1727,7 +1730,7 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1735,7 +1738,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1743,7 +1746,7 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1751,7 +1754,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1759,10 +1762,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1770,10 +1773,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1781,10 +1784,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1802,44 +1805,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\messineses\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0852E755-BE55-48D6-A1AD-CAD0841E6F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stato Attuale" sheetId="1" r:id="rId1"/>
     <sheet name="Storico Passaggi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="199">
   <si>
     <t>targa</t>
   </si>
@@ -326,195 +332,198 @@
     <t>ALIAJ.KLODIAN</t>
   </si>
   <si>
+    <t>TELEASA GEANINA</t>
+  </si>
+  <si>
+    <t>ZACCAGNIGNO ROCCO</t>
+  </si>
+  <si>
+    <t>MONICA.LENKA</t>
+  </si>
+  <si>
+    <t>VALERY.PACELLA</t>
+  </si>
+  <si>
+    <t>SIMONA.PETRAGNANO</t>
+  </si>
+  <si>
+    <t>ALESSIA.DE LUCA</t>
+  </si>
+  <si>
+    <t>DARIO.LELLA</t>
+  </si>
+  <si>
+    <t>ALEMANNO.PIERPAOLO 28-07 TEMPORANEO</t>
+  </si>
+  <si>
+    <t>CINZIA.D'ORAZIO</t>
+  </si>
+  <si>
+    <t>DI TIZIO.VALENTINA</t>
+  </si>
+  <si>
+    <t>ELENA DELL'ARCIPRETE</t>
+  </si>
+  <si>
+    <t>muletto vasto</t>
+  </si>
+  <si>
+    <t>GAIA.MARTI</t>
+  </si>
+  <si>
+    <t>DAVIDE.BONFITTO</t>
+  </si>
+  <si>
+    <t>JANE.LUCIANO</t>
+  </si>
+  <si>
+    <t>MARATEA.FELICIA</t>
+  </si>
+  <si>
+    <t>ANTONIO.BRUNO</t>
+  </si>
+  <si>
+    <t>MARIA.LUCIANO</t>
+  </si>
+  <si>
+    <t>MIMOZA.TREPSENISHTI</t>
+  </si>
+  <si>
+    <t>ELEONORA:PERINO</t>
+  </si>
+  <si>
+    <t>LORENZA.COLABRUNO</t>
+  </si>
+  <si>
+    <t>MICAELA.POSTIGLIONE</t>
+  </si>
+  <si>
+    <t>MARCO.VIOLA</t>
+  </si>
+  <si>
+    <t>ARSONELA-MUCA</t>
+  </si>
+  <si>
+    <t>MICHELA.VOCIONE</t>
+  </si>
+  <si>
+    <t>FEDERICA.DIREMIGIO</t>
+  </si>
+  <si>
+    <t>MARIALUCIA.DELRE</t>
+  </si>
+  <si>
+    <t>NATHALIE.BOVE</t>
+  </si>
+  <si>
+    <t>SECRIERU.NATALIA</t>
+  </si>
+  <si>
+    <t>FELICIA.FALCONIO</t>
+  </si>
+  <si>
+    <t>AURORA.TARANTINI</t>
+  </si>
+  <si>
+    <t>PIERPAOLO.ALEMANNO</t>
+  </si>
+  <si>
+    <t>ESTER.FECONDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADIR.FINIZII </t>
+  </si>
+  <si>
+    <t>LEPORATI PEREZ.MELANY LUNA</t>
+  </si>
+  <si>
+    <t>DA ASSEGNARE</t>
+  </si>
+  <si>
+    <t>DIEGO.PANTALONE</t>
+  </si>
+  <si>
+    <t>MARCELLA.TRIVARELLI</t>
+  </si>
+  <si>
+    <t>GIADA.GIANSALVO</t>
+  </si>
+  <si>
+    <t>GIULIA.RENZETTI</t>
+  </si>
+  <si>
+    <t>LORELLAD'ORTONA</t>
+  </si>
+  <si>
+    <t>FINE RENT</t>
+  </si>
+  <si>
+    <t>SIMONA.TURDò</t>
+  </si>
+  <si>
+    <t>NOD PESCARA</t>
+  </si>
+  <si>
+    <t>CANDELORO AUGUSTA</t>
+  </si>
+  <si>
+    <t>MATTEO.CERRITETLLI</t>
+  </si>
+  <si>
+    <t>MILENA.IANNIELLO</t>
+  </si>
+  <si>
+    <t>DOINA.ATANASOAEI</t>
+  </si>
+  <si>
+    <t>DAVIDE.DI CRISTOFARO</t>
+  </si>
+  <si>
+    <t>FRANCESCO.DI.DOMENICANTONIO</t>
+  </si>
+  <si>
+    <t>NORA.CIMINO</t>
+  </si>
+  <si>
+    <t>GIANLUCA.LUCIANI</t>
+  </si>
+  <si>
+    <t>ALESSIO.PELLICCIA</t>
+  </si>
+  <si>
+    <t>NARDECCHIA CHIARA</t>
+  </si>
+  <si>
+    <t>GIUSEPPE.GRAVINA</t>
+  </si>
+  <si>
+    <t>BEATRICE.D'INNOCENZO</t>
+  </si>
+  <si>
+    <t>FRANCESCA.COTOLESSA</t>
+  </si>
+  <si>
+    <t>PITOLI.PAULA RENATA</t>
+  </si>
+  <si>
+    <t>CONSOL</t>
+  </si>
+  <si>
+    <t>ANTONINO.MICOZZI</t>
+  </si>
+  <si>
+    <t>PAOLA.VADANESCU</t>
+  </si>
+  <si>
+    <t>MOANA.DIFRANCESCO</t>
+  </si>
+  <si>
+    <t>SALVATORE.ALEMANNI</t>
+  </si>
+  <si>
     <t>MARICA.SPADACCINI</t>
   </si>
   <si>
-    <t>ZACCAGNIGNO ROCCO</t>
-  </si>
-  <si>
-    <t>MONICA.LENKA</t>
-  </si>
-  <si>
-    <t>VALERY.PACELLA</t>
-  </si>
-  <si>
-    <t>SIMONA.PETRAGNANO</t>
-  </si>
-  <si>
-    <t>ALESSIA.DE LUCA</t>
-  </si>
-  <si>
-    <t>DARIO.LELLA</t>
-  </si>
-  <si>
-    <t>ALEMANNO.PIERPAOLO 28-07 TEMPORANEO</t>
-  </si>
-  <si>
-    <t>CINZIA.D'ORAZIO</t>
-  </si>
-  <si>
-    <t>DI TIZIO.VALENTINA</t>
-  </si>
-  <si>
-    <t>ELENA DELL'ARCIPRETE</t>
-  </si>
-  <si>
-    <t>muletto vasto</t>
-  </si>
-  <si>
-    <t>GAIA.MARTI</t>
-  </si>
-  <si>
-    <t>DAVIDE.BONFITTO</t>
-  </si>
-  <si>
-    <t>JANE.LUCIANO</t>
-  </si>
-  <si>
-    <t>MARATEA.FELICIA</t>
-  </si>
-  <si>
-    <t>ANTONIO.BRUNO</t>
-  </si>
-  <si>
-    <t>MARIA.LUCIANO</t>
-  </si>
-  <si>
-    <t>MIMOZA.TREPSENISHTI</t>
-  </si>
-  <si>
-    <t>ELEONORA:PERINO</t>
-  </si>
-  <si>
-    <t>LORENZA.COLABRUNO</t>
-  </si>
-  <si>
-    <t>MICAELA.POSTIGLIONE</t>
-  </si>
-  <si>
-    <t>MARCO.VIOLA</t>
-  </si>
-  <si>
-    <t>ARSONELA-MUCA</t>
-  </si>
-  <si>
-    <t>MICHELA.VOCIONE</t>
-  </si>
-  <si>
-    <t>FEDERICA.DIREMIGIO</t>
-  </si>
-  <si>
-    <t>MARIALUCIA.DELRE</t>
-  </si>
-  <si>
-    <t>NATHALIE.BOVE</t>
-  </si>
-  <si>
-    <t>SECRIERU.NATALIA</t>
-  </si>
-  <si>
-    <t>FELICIA.FALCONIO</t>
-  </si>
-  <si>
-    <t>AURORA.TARANTINI</t>
-  </si>
-  <si>
-    <t>PIERPAOLO.ALEMANNO</t>
-  </si>
-  <si>
-    <t>ESTER.FECONDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NADIR.FINIZII </t>
-  </si>
-  <si>
-    <t>LEPORATI PEREZ.MELANY LUNA</t>
-  </si>
-  <si>
-    <t>DA ASSEGNARE</t>
-  </si>
-  <si>
-    <t>DIEGO.PANTALONE</t>
-  </si>
-  <si>
-    <t>MARCELLA.TRIVARELLI</t>
-  </si>
-  <si>
-    <t>GIADA.GIANSALVO</t>
-  </si>
-  <si>
-    <t>GIULIA.RENZETTI</t>
-  </si>
-  <si>
-    <t>LORELLAD'ORTONA</t>
-  </si>
-  <si>
-    <t>FINE RENT</t>
-  </si>
-  <si>
-    <t>SIMONA.TURDò</t>
-  </si>
-  <si>
-    <t>NOD PESCARA</t>
-  </si>
-  <si>
-    <t>CANDELORO AUGUSTA</t>
-  </si>
-  <si>
-    <t>MATTEO.CERRITETLLI</t>
-  </si>
-  <si>
-    <t>MILENA.IANNIELLO</t>
-  </si>
-  <si>
-    <t>DOINA.ATANASOAEI</t>
-  </si>
-  <si>
-    <t>DAVIDE.DI CRISTOFARO</t>
-  </si>
-  <si>
-    <t>FRANCESCO.DI.DOMENICANTONIO</t>
-  </si>
-  <si>
-    <t>NORA.CIMINO</t>
-  </si>
-  <si>
-    <t>GIANLUCA.LUCIANI</t>
-  </si>
-  <si>
-    <t>ALESSIO.PELLICCIA</t>
-  </si>
-  <si>
-    <t>NARDECCHIA CHIARA</t>
-  </si>
-  <si>
-    <t>GIUSEPPE.GRAVINA</t>
-  </si>
-  <si>
-    <t>BEATRICE.D'INNOCENZO</t>
-  </si>
-  <si>
-    <t>FRANCESCA.COTOLESSA</t>
-  </si>
-  <si>
-    <t>PITOLI.PAULA RENATA</t>
-  </si>
-  <si>
-    <t>CONSOL</t>
-  </si>
-  <si>
-    <t>ANTONINO.MICOZZI</t>
-  </si>
-  <si>
-    <t>PAOLA.VADANESCU</t>
-  </si>
-  <si>
-    <t>MOANA.DIFRANCESCO</t>
-  </si>
-  <si>
-    <t>SALVATORE.ALEMANNI</t>
-  </si>
-  <si>
     <t>TONIA DE TOMMASO</t>
   </si>
   <si>
@@ -609,16 +618,16 @@
   </si>
   <si>
     <t>Data_Cambio</t>
-  </si>
-  <si>
-    <t>PACE.VITO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,6 +637,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -667,27 +683,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -725,7 +753,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -759,6 +787,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -793,9 +822,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -968,14 +998,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -994,7 +1030,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1002,10 +1038,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1013,7 +1049,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1021,15 +1057,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="3">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1037,10 +1076,10 @@
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1087,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1095,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1064,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1072,7 +1111,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1080,7 +1119,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1088,7 +1127,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1096,7 +1135,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1104,7 +1143,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1112,7 +1151,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1120,10 +1159,10 @@
         <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1131,7 +1170,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1139,7 +1178,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1147,7 +1186,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1155,7 +1194,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1163,7 +1202,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1171,7 +1210,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1179,7 +1218,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1187,7 +1226,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1195,7 +1234,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1203,7 +1242,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1211,7 +1250,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1219,7 +1258,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1227,7 +1266,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1235,7 +1274,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1243,7 +1282,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1251,7 +1290,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1259,7 +1298,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1267,7 +1306,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1275,7 +1314,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1283,7 +1322,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1291,7 +1330,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1299,7 +1338,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1307,7 +1346,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1315,7 +1354,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1323,10 +1362,10 @@
         <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1334,7 +1373,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1342,7 +1381,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1350,7 +1389,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1358,7 +1397,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1366,7 +1405,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1374,7 +1413,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1382,7 +1421,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1390,7 +1429,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1398,10 +1437,10 @@
         <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1409,7 +1448,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1417,7 +1456,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1425,7 +1464,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1433,7 +1472,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1441,7 +1480,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1449,7 +1488,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1457,7 +1496,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1465,7 +1504,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1473,10 +1512,10 @@
         <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1484,7 +1523,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1492,7 +1531,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1500,7 +1539,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1508,7 +1547,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1516,7 +1555,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1524,7 +1563,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1532,7 +1571,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1540,7 +1579,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1548,34 +1587,34 @@
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1583,53 +1622,53 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1637,127 +1676,127 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -1765,10 +1804,10 @@
         <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -1776,10 +1815,10 @@
         <v>144</v>
       </c>
       <c r="C96" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -1787,7 +1826,7 @@
         <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1796,53 +1835,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" t="s">
-        <v>190</v>
+        <v>103</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45851</v>
       </c>
     </row>
   </sheetData>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\messineses\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0852E755-BE55-48D6-A1AD-CAD0841E6F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Stato Attuale" sheetId="1" r:id="rId1"/>
     <sheet name="Storico Passaggi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="201">
   <si>
     <t>targa</t>
   </si>
@@ -365,269 +359,275 @@
     <t>ELENA DELL'ARCIPRETE</t>
   </si>
   <si>
+    <t>PARDI ELIANA</t>
+  </si>
+  <si>
+    <t>GAIA.MARTI</t>
+  </si>
+  <si>
+    <t>DAVIDE.BONFITTO</t>
+  </si>
+  <si>
+    <t>JANE.LUCIANO</t>
+  </si>
+  <si>
+    <t>MARATEA.FELICIA</t>
+  </si>
+  <si>
+    <t>ANTONIO.BRUNO</t>
+  </si>
+  <si>
+    <t>MARIA.LUCIANO</t>
+  </si>
+  <si>
+    <t>MIMOZA.TREPSENISHTI</t>
+  </si>
+  <si>
+    <t>ELEONORA:PERINO</t>
+  </si>
+  <si>
+    <t>LORENZA.COLABRUNO</t>
+  </si>
+  <si>
+    <t>MICAELA.POSTIGLIONE</t>
+  </si>
+  <si>
+    <t>MARCO.VIOLA</t>
+  </si>
+  <si>
+    <t>ARSONELA-MUCA</t>
+  </si>
+  <si>
+    <t>MICHELA.VOCIONE</t>
+  </si>
+  <si>
+    <t>FEDERICA.DIREMIGIO</t>
+  </si>
+  <si>
+    <t>MARIALUCIA.DELRE</t>
+  </si>
+  <si>
+    <t>NATHALIE.BOVE</t>
+  </si>
+  <si>
+    <t>SECRIERU.NATALIA</t>
+  </si>
+  <si>
+    <t>FELICIA.FALCONIO</t>
+  </si>
+  <si>
+    <t>AURORA.TARANTINI</t>
+  </si>
+  <si>
+    <t>PIERPAOLO.ALEMANNO</t>
+  </si>
+  <si>
+    <t>ESTER.FECONDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADIR.FINIZII </t>
+  </si>
+  <si>
+    <t>LEPORATI PEREZ.MELANY LUNA</t>
+  </si>
+  <si>
+    <t>DA ASSEGNARE</t>
+  </si>
+  <si>
+    <t>DIEGO.PANTALONE</t>
+  </si>
+  <si>
+    <t>MARCELLA.TRIVARELLI</t>
+  </si>
+  <si>
+    <t>GIADA.GIANSALVO</t>
+  </si>
+  <si>
+    <t>GIULIA.RENZETTI</t>
+  </si>
+  <si>
+    <t>LORELLAD'ORTONA</t>
+  </si>
+  <si>
+    <t>FINE RENT</t>
+  </si>
+  <si>
+    <t>SIMONA.TURDò</t>
+  </si>
+  <si>
+    <t>NOD PESCARA</t>
+  </si>
+  <si>
+    <t>CANDELORO AUGUSTA</t>
+  </si>
+  <si>
+    <t>MATTEO.CERRITETLLI</t>
+  </si>
+  <si>
+    <t>MILENA.IANNIELLO</t>
+  </si>
+  <si>
+    <t>DOINA.ATANASOAEI</t>
+  </si>
+  <si>
+    <t>DAVIDE.DI CRISTOFARO</t>
+  </si>
+  <si>
+    <t>FRANCESCO.DI.DOMENICANTONIO</t>
+  </si>
+  <si>
+    <t>NORA.CIMINO</t>
+  </si>
+  <si>
+    <t>GIANLUCA.LUCIANI</t>
+  </si>
+  <si>
+    <t>ALESSIO.PELLICCIA</t>
+  </si>
+  <si>
+    <t>NARDECCHIA CHIARA</t>
+  </si>
+  <si>
+    <t>GIUSEPPE.GRAVINA</t>
+  </si>
+  <si>
+    <t>BEATRICE.D'INNOCENZO</t>
+  </si>
+  <si>
+    <t>FRANCESCA.COTOLESSA</t>
+  </si>
+  <si>
+    <t>PITOLI.PAULA RENATA</t>
+  </si>
+  <si>
+    <t>CONSOL</t>
+  </si>
+  <si>
+    <t>ANTONINO.MICOZZI</t>
+  </si>
+  <si>
+    <t>PAOLA.VADANESCU</t>
+  </si>
+  <si>
+    <t>MOANA.DIFRANCESCO</t>
+  </si>
+  <si>
+    <t>SALVATORE.ALEMANNI</t>
+  </si>
+  <si>
+    <t>MARICA.SPADACCINI</t>
+  </si>
+  <si>
+    <t>TONIA DE TOMMASO</t>
+  </si>
+  <si>
+    <t>DA ASSEGNARE (BENEGIAMO MALATTIA LUNGA)</t>
+  </si>
+  <si>
+    <t>CHRISTIAN.VERNA</t>
+  </si>
+  <si>
+    <t>PACELLA VALERY</t>
+  </si>
+  <si>
+    <t>DI LORETO FABIO</t>
+  </si>
+  <si>
+    <t>LAURA.STANISCI</t>
+  </si>
+  <si>
+    <t>SABINA.LANCIA</t>
+  </si>
+  <si>
+    <t>IEZZI.SERENA</t>
+  </si>
+  <si>
+    <t>MARCO.DI.NIZO</t>
+  </si>
+  <si>
+    <t>GIAMPIERO.RICUCCI</t>
+  </si>
+  <si>
+    <t>SARA.VALLERI</t>
+  </si>
+  <si>
+    <t>VALERIO.D'ANTONIO</t>
+  </si>
+  <si>
+    <t>YOEL.DESPAIGNE</t>
+  </si>
+  <si>
+    <t>ERIKA.PATELLA</t>
+  </si>
+  <si>
+    <t>SCACCIA FEDERICA</t>
+  </si>
+  <si>
+    <t>SOFIA.D'ANGELO</t>
+  </si>
+  <si>
+    <t>COCO.FEDERICO</t>
+  </si>
+  <si>
+    <t>CARAVAGGIO.MARISA</t>
+  </si>
+  <si>
+    <t>CHIARA.MANCINI</t>
+  </si>
+  <si>
+    <t>MATTEO.CAVACINI</t>
+  </si>
+  <si>
+    <t>COMPARELLI</t>
+  </si>
+  <si>
+    <t>KALOV SLAVI KRASIMIROV</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
+  </si>
+  <si>
     <t>muletto vasto</t>
-  </si>
-  <si>
-    <t>GAIA.MARTI</t>
-  </si>
-  <si>
-    <t>DAVIDE.BONFITTO</t>
-  </si>
-  <si>
-    <t>JANE.LUCIANO</t>
-  </si>
-  <si>
-    <t>MARATEA.FELICIA</t>
-  </si>
-  <si>
-    <t>ANTONIO.BRUNO</t>
-  </si>
-  <si>
-    <t>MARIA.LUCIANO</t>
-  </si>
-  <si>
-    <t>MIMOZA.TREPSENISHTI</t>
-  </si>
-  <si>
-    <t>ELEONORA:PERINO</t>
-  </si>
-  <si>
-    <t>LORENZA.COLABRUNO</t>
-  </si>
-  <si>
-    <t>MICAELA.POSTIGLIONE</t>
-  </si>
-  <si>
-    <t>MARCO.VIOLA</t>
-  </si>
-  <si>
-    <t>ARSONELA-MUCA</t>
-  </si>
-  <si>
-    <t>MICHELA.VOCIONE</t>
-  </si>
-  <si>
-    <t>FEDERICA.DIREMIGIO</t>
-  </si>
-  <si>
-    <t>MARIALUCIA.DELRE</t>
-  </si>
-  <si>
-    <t>NATHALIE.BOVE</t>
-  </si>
-  <si>
-    <t>SECRIERU.NATALIA</t>
-  </si>
-  <si>
-    <t>FELICIA.FALCONIO</t>
-  </si>
-  <si>
-    <t>AURORA.TARANTINI</t>
-  </si>
-  <si>
-    <t>PIERPAOLO.ALEMANNO</t>
-  </si>
-  <si>
-    <t>ESTER.FECONDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NADIR.FINIZII </t>
-  </si>
-  <si>
-    <t>LEPORATI PEREZ.MELANY LUNA</t>
-  </si>
-  <si>
-    <t>DA ASSEGNARE</t>
-  </si>
-  <si>
-    <t>DIEGO.PANTALONE</t>
-  </si>
-  <si>
-    <t>MARCELLA.TRIVARELLI</t>
-  </si>
-  <si>
-    <t>GIADA.GIANSALVO</t>
-  </si>
-  <si>
-    <t>GIULIA.RENZETTI</t>
-  </si>
-  <si>
-    <t>LORELLAD'ORTONA</t>
-  </si>
-  <si>
-    <t>FINE RENT</t>
-  </si>
-  <si>
-    <t>SIMONA.TURDò</t>
-  </si>
-  <si>
-    <t>NOD PESCARA</t>
-  </si>
-  <si>
-    <t>CANDELORO AUGUSTA</t>
-  </si>
-  <si>
-    <t>MATTEO.CERRITETLLI</t>
-  </si>
-  <si>
-    <t>MILENA.IANNIELLO</t>
-  </si>
-  <si>
-    <t>DOINA.ATANASOAEI</t>
-  </si>
-  <si>
-    <t>DAVIDE.DI CRISTOFARO</t>
-  </si>
-  <si>
-    <t>FRANCESCO.DI.DOMENICANTONIO</t>
-  </si>
-  <si>
-    <t>NORA.CIMINO</t>
-  </si>
-  <si>
-    <t>GIANLUCA.LUCIANI</t>
-  </si>
-  <si>
-    <t>ALESSIO.PELLICCIA</t>
-  </si>
-  <si>
-    <t>NARDECCHIA CHIARA</t>
-  </si>
-  <si>
-    <t>GIUSEPPE.GRAVINA</t>
-  </si>
-  <si>
-    <t>BEATRICE.D'INNOCENZO</t>
-  </si>
-  <si>
-    <t>FRANCESCA.COTOLESSA</t>
-  </si>
-  <si>
-    <t>PITOLI.PAULA RENATA</t>
-  </si>
-  <si>
-    <t>CONSOL</t>
-  </si>
-  <si>
-    <t>ANTONINO.MICOZZI</t>
-  </si>
-  <si>
-    <t>PAOLA.VADANESCU</t>
-  </si>
-  <si>
-    <t>MOANA.DIFRANCESCO</t>
-  </si>
-  <si>
-    <t>SALVATORE.ALEMANNI</t>
-  </si>
-  <si>
-    <t>MARICA.SPADACCINI</t>
-  </si>
-  <si>
-    <t>TONIA DE TOMMASO</t>
-  </si>
-  <si>
-    <t>DA ASSEGNARE (BENEGIAMO MALATTIA LUNGA)</t>
-  </si>
-  <si>
-    <t>CHRISTIAN.VERNA</t>
-  </si>
-  <si>
-    <t>PACELLA VALERY</t>
-  </si>
-  <si>
-    <t>DI LORETO FABIO</t>
-  </si>
-  <si>
-    <t>LAURA.STANISCI</t>
-  </si>
-  <si>
-    <t>SABINA.LANCIA</t>
-  </si>
-  <si>
-    <t>IEZZI.SERENA</t>
-  </si>
-  <si>
-    <t>MARCO.DI.NIZO</t>
-  </si>
-  <si>
-    <t>GIAMPIERO.RICUCCI</t>
-  </si>
-  <si>
-    <t>SARA.VALLERI</t>
-  </si>
-  <si>
-    <t>VALERIO.D'ANTONIO</t>
-  </si>
-  <si>
-    <t>YOEL.DESPAIGNE</t>
-  </si>
-  <si>
-    <t>ERIKA.PATELLA</t>
-  </si>
-  <si>
-    <t>SCACCIA FEDERICA</t>
-  </si>
-  <si>
-    <t>SOFIA.D'ANGELO</t>
-  </si>
-  <si>
-    <t>COCO.FEDERICO</t>
-  </si>
-  <si>
-    <t>CARAVAGGIO.MARISA</t>
-  </si>
-  <si>
-    <t>CHIARA.MANCINI</t>
-  </si>
-  <si>
-    <t>MATTEO.CAVACINI</t>
-  </si>
-  <si>
-    <t>COMPARELLI</t>
-  </si>
-  <si>
-    <t>KALOV SLAVI KRASIMIROV</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>Targa</t>
-  </si>
-  <si>
-    <t>Operatore_Precedente</t>
-  </si>
-  <si>
-    <t>Nuovo_Operatore</t>
-  </si>
-  <si>
-    <t>Data_Cambio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,13 +637,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -683,39 +676,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -753,7 +735,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -787,7 +769,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -822,10 +803,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -998,20 +978,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1030,7 +1004,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1041,7 +1015,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1057,18 +1031,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>45851</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1079,7 +1053,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1087,7 +1061,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1095,7 +1069,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1103,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1111,7 +1085,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1119,7 +1093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1127,7 +1101,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1135,7 +1109,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1143,7 +1117,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1151,7 +1125,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1162,15 +1136,18 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1178,7 +1155,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1186,7 +1163,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1194,7 +1171,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1202,7 +1179,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1210,7 +1187,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1218,7 +1195,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1226,7 +1203,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1234,7 +1211,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1242,7 +1219,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1250,7 +1227,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1258,7 +1235,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1266,7 +1243,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1274,7 +1251,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1282,7 +1259,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1290,7 +1267,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1298,7 +1275,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1306,7 +1283,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1314,7 +1291,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1322,7 +1299,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1330,7 +1307,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1338,7 +1315,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1346,7 +1323,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1354,7 +1331,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1362,10 +1339,10 @@
         <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1373,7 +1350,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1381,7 +1358,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1389,7 +1366,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1397,7 +1374,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1405,7 +1382,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1413,7 +1390,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1421,7 +1398,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1429,7 +1406,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1437,10 +1414,10 @@
         <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1448,7 +1425,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1456,7 +1433,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1464,7 +1441,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1472,7 +1449,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1480,7 +1457,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1488,7 +1465,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1496,7 +1473,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1504,7 +1481,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1515,7 +1492,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1523,7 +1500,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1531,7 +1508,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1539,7 +1516,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1547,7 +1524,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1555,7 +1532,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1563,7 +1540,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1571,7 +1548,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1579,7 +1556,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1587,7 +1564,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1595,7 +1572,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1603,7 +1580,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1614,7 +1591,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1622,7 +1599,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1630,7 +1607,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1641,7 +1618,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1649,10 +1626,10 @@
         <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1660,7 +1637,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1668,7 +1645,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1676,7 +1653,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -1684,7 +1661,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -1692,7 +1669,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -1700,7 +1677,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -1708,7 +1685,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -1716,7 +1693,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -1724,7 +1701,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -1732,7 +1709,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -1740,7 +1717,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -1748,7 +1725,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -1756,7 +1733,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -1764,7 +1741,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -1772,7 +1749,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -1780,7 +1757,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -1788,7 +1765,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -1796,7 +1773,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -1804,10 +1781,10 @@
         <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -1815,10 +1792,10 @@
         <v>144</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -1826,7 +1803,7 @@
         <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1835,44 +1812,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45851</v>
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="203">
   <si>
     <t>targa</t>
   </si>
@@ -431,114 +431,117 @@
     <t>LEPORATI PEREZ.MELANY LUNA</t>
   </si>
   <si>
+    <t>DI IANNI FELICIA</t>
+  </si>
+  <si>
+    <t>DIEGO.PANTALONE</t>
+  </si>
+  <si>
+    <t>MARCELLA.TRIVARELLI</t>
+  </si>
+  <si>
+    <t>GIADA.GIANSALVO</t>
+  </si>
+  <si>
+    <t>GIULIA.RENZETTI</t>
+  </si>
+  <si>
+    <t>LORELLAD'ORTONA</t>
+  </si>
+  <si>
+    <t>FINE RENT</t>
+  </si>
+  <si>
+    <t>SIMONA.TURDò</t>
+  </si>
+  <si>
+    <t>NOD PESCARA</t>
+  </si>
+  <si>
+    <t>CANDELORO AUGUSTA</t>
+  </si>
+  <si>
+    <t>MATTEO.CERRITETLLI</t>
+  </si>
+  <si>
+    <t>MILENA.IANNIELLO</t>
+  </si>
+  <si>
+    <t>DOINA.ATANASOAEI</t>
+  </si>
+  <si>
+    <t>DAVIDE.DI CRISTOFARO</t>
+  </si>
+  <si>
+    <t>FRANCESCO.DI.DOMENICANTONIO</t>
+  </si>
+  <si>
+    <t>NORA.CIMINO</t>
+  </si>
+  <si>
+    <t>GIANLUCA.LUCIANI</t>
+  </si>
+  <si>
+    <t>ALESSIO.PELLICCIA</t>
+  </si>
+  <si>
+    <t>NARDECCHIA CHIARA</t>
+  </si>
+  <si>
+    <t>GIUSEPPE.GRAVINA</t>
+  </si>
+  <si>
+    <t>BEATRICE.D'INNOCENZO</t>
+  </si>
+  <si>
+    <t>FRANCESCA.COTOLESSA</t>
+  </si>
+  <si>
+    <t>PITOLI.PAULA RENATA</t>
+  </si>
+  <si>
+    <t>CONSOL</t>
+  </si>
+  <si>
+    <t>ANTONINO.MICOZZI</t>
+  </si>
+  <si>
+    <t>PAOLA.VADANESCU</t>
+  </si>
+  <si>
+    <t>MOANA.DIFRANCESCO</t>
+  </si>
+  <si>
+    <t>SALVATORE.ALEMANNI</t>
+  </si>
+  <si>
+    <t>MARICA.SPADACCINI</t>
+  </si>
+  <si>
+    <t>TONIA DE TOMMASO</t>
+  </si>
+  <si>
+    <t>DA ASSEGNARE (BENEGIAMO MALATTIA LUNGA)</t>
+  </si>
+  <si>
+    <t>CHRISTIAN.VERNA</t>
+  </si>
+  <si>
+    <t>PACELLA VALERY</t>
+  </si>
+  <si>
+    <t>DI LORETO FABIO</t>
+  </si>
+  <si>
+    <t>LAURA.STANISCI</t>
+  </si>
+  <si>
+    <t>SABINA.LANCIA</t>
+  </si>
+  <si>
     <t>DA ASSEGNARE</t>
   </si>
   <si>
-    <t>DIEGO.PANTALONE</t>
-  </si>
-  <si>
-    <t>MARCELLA.TRIVARELLI</t>
-  </si>
-  <si>
-    <t>GIADA.GIANSALVO</t>
-  </si>
-  <si>
-    <t>GIULIA.RENZETTI</t>
-  </si>
-  <si>
-    <t>LORELLAD'ORTONA</t>
-  </si>
-  <si>
-    <t>FINE RENT</t>
-  </si>
-  <si>
-    <t>SIMONA.TURDò</t>
-  </si>
-  <si>
-    <t>NOD PESCARA</t>
-  </si>
-  <si>
-    <t>CANDELORO AUGUSTA</t>
-  </si>
-  <si>
-    <t>MATTEO.CERRITETLLI</t>
-  </si>
-  <si>
-    <t>MILENA.IANNIELLO</t>
-  </si>
-  <si>
-    <t>DOINA.ATANASOAEI</t>
-  </si>
-  <si>
-    <t>DAVIDE.DI CRISTOFARO</t>
-  </si>
-  <si>
-    <t>FRANCESCO.DI.DOMENICANTONIO</t>
-  </si>
-  <si>
-    <t>NORA.CIMINO</t>
-  </si>
-  <si>
-    <t>GIANLUCA.LUCIANI</t>
-  </si>
-  <si>
-    <t>ALESSIO.PELLICCIA</t>
-  </si>
-  <si>
-    <t>NARDECCHIA CHIARA</t>
-  </si>
-  <si>
-    <t>GIUSEPPE.GRAVINA</t>
-  </si>
-  <si>
-    <t>BEATRICE.D'INNOCENZO</t>
-  </si>
-  <si>
-    <t>FRANCESCA.COTOLESSA</t>
-  </si>
-  <si>
-    <t>PITOLI.PAULA RENATA</t>
-  </si>
-  <si>
-    <t>CONSOL</t>
-  </si>
-  <si>
-    <t>ANTONINO.MICOZZI</t>
-  </si>
-  <si>
-    <t>PAOLA.VADANESCU</t>
-  </si>
-  <si>
-    <t>MOANA.DIFRANCESCO</t>
-  </si>
-  <si>
-    <t>SALVATORE.ALEMANNI</t>
-  </si>
-  <si>
-    <t>MARICA.SPADACCINI</t>
-  </si>
-  <si>
-    <t>TONIA DE TOMMASO</t>
-  </si>
-  <si>
-    <t>DA ASSEGNARE (BENEGIAMO MALATTIA LUNGA)</t>
-  </si>
-  <si>
-    <t>CHRISTIAN.VERNA</t>
-  </si>
-  <si>
-    <t>PACELLA VALERY</t>
-  </si>
-  <si>
-    <t>DI LORETO FABIO</t>
-  </si>
-  <si>
-    <t>LAURA.STANISCI</t>
-  </si>
-  <si>
-    <t>SABINA.LANCIA</t>
-  </si>
-  <si>
     <t>IEZZI.SERENA</t>
   </si>
   <si>
@@ -584,6 +587,9 @@
     <t>KALOV SLAVI KRASIMIROV</t>
   </si>
   <si>
+    <t>GIOBBE MICHELE</t>
+  </si>
+  <si>
     <t>2026-01-05</t>
   </si>
   <si>
@@ -596,15 +602,18 @@
     <t>2026-01-15</t>
   </si>
   <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
     <t>2025-12-18</t>
   </si>
   <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
     <t>Targa</t>
   </si>
   <si>
@@ -615,9 +624,6 @@
   </si>
   <si>
     <t>Data_Cambio</t>
-  </si>
-  <si>
-    <t>muletto vasto</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1018,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1050,7 +1056,7 @@
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1133,7 +1139,7 @@
         <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1144,7 +1150,7 @@
         <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1339,7 +1345,7 @@
         <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1414,7 +1420,7 @@
         <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1489,7 +1495,7 @@
         <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1588,7 +1594,7 @@
         <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1615,7 +1621,7 @@
         <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1626,7 +1632,7 @@
         <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1650,7 +1656,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1658,7 +1664,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1666,7 +1672,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1674,7 +1680,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1682,7 +1688,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1690,7 +1696,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1698,7 +1704,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1706,7 +1712,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1714,7 +1720,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1722,7 +1728,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1730,7 +1736,7 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1738,7 +1744,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1746,7 +1752,7 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1754,7 +1760,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1762,7 +1768,7 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1770,7 +1776,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1781,7 +1787,7 @@
         <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1789,10 +1795,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="C96" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1803,7 +1809,7 @@
         <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +1819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1821,30 +1827,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="206">
   <si>
     <t>targa</t>
   </si>
@@ -521,109 +521,118 @@
     <t>TONIA DE TOMMASO</t>
   </si>
   <si>
+    <t>BRAGHINI MATTEO</t>
+  </si>
+  <si>
+    <t>CHRISTIAN.VERNA</t>
+  </si>
+  <si>
+    <t>PACELLA VALERY</t>
+  </si>
+  <si>
+    <t>DI LORETO FABIO</t>
+  </si>
+  <si>
+    <t>LAURA.STANISCI</t>
+  </si>
+  <si>
+    <t>SABINA.LANCIA</t>
+  </si>
+  <si>
+    <t>MASCIARELLI MAURIZIO</t>
+  </si>
+  <si>
+    <t>IEZZI.SERENA</t>
+  </si>
+  <si>
+    <t>MARCO.DI.NIZO</t>
+  </si>
+  <si>
+    <t>GIAMPIERO.RICUCCI</t>
+  </si>
+  <si>
+    <t>SARA.VALLERI</t>
+  </si>
+  <si>
+    <t>VALERIO.D'ANTONIO</t>
+  </si>
+  <si>
+    <t>YOEL.DESPAIGNE</t>
+  </si>
+  <si>
+    <t>ERIKA.PATELLA</t>
+  </si>
+  <si>
+    <t>SCACCIA FEDERICA</t>
+  </si>
+  <si>
+    <t>SOFIA.D'ANGELO</t>
+  </si>
+  <si>
+    <t>COCO.FEDERICO</t>
+  </si>
+  <si>
+    <t>CARAVAGGIO.MARISA</t>
+  </si>
+  <si>
+    <t>CHIARA.MANCINI</t>
+  </si>
+  <si>
+    <t>MATTEO.CAVACINI</t>
+  </si>
+  <si>
+    <t>COMPARELLI</t>
+  </si>
+  <si>
+    <t>KALOV SLAVI KRASIMIROV</t>
+  </si>
+  <si>
+    <t>GIOBBE MICHELE</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
+  </si>
+  <si>
     <t>DA ASSEGNARE (BENEGIAMO MALATTIA LUNGA)</t>
   </si>
   <si>
-    <t>CHRISTIAN.VERNA</t>
-  </si>
-  <si>
-    <t>PACELLA VALERY</t>
-  </si>
-  <si>
-    <t>DI LORETO FABIO</t>
-  </si>
-  <si>
-    <t>LAURA.STANISCI</t>
-  </si>
-  <si>
-    <t>SABINA.LANCIA</t>
-  </si>
-  <si>
     <t>DA ASSEGNARE</t>
-  </si>
-  <si>
-    <t>IEZZI.SERENA</t>
-  </si>
-  <si>
-    <t>MARCO.DI.NIZO</t>
-  </si>
-  <si>
-    <t>GIAMPIERO.RICUCCI</t>
-  </si>
-  <si>
-    <t>SARA.VALLERI</t>
-  </si>
-  <si>
-    <t>VALERIO.D'ANTONIO</t>
-  </si>
-  <si>
-    <t>YOEL.DESPAIGNE</t>
-  </si>
-  <si>
-    <t>ERIKA.PATELLA</t>
-  </si>
-  <si>
-    <t>SCACCIA FEDERICA</t>
-  </si>
-  <si>
-    <t>SOFIA.D'ANGELO</t>
-  </si>
-  <si>
-    <t>COCO.FEDERICO</t>
-  </si>
-  <si>
-    <t>CARAVAGGIO.MARISA</t>
-  </si>
-  <si>
-    <t>CHIARA.MANCINI</t>
-  </si>
-  <si>
-    <t>MATTEO.CAVACINI</t>
-  </si>
-  <si>
-    <t>COMPARELLI</t>
-  </si>
-  <si>
-    <t>KALOV SLAVI KRASIMIROV</t>
-  </si>
-  <si>
-    <t>GIOBBE MICHELE</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-01-23</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>Targa</t>
-  </si>
-  <si>
-    <t>Operatore_Precedente</t>
-  </si>
-  <si>
-    <t>Nuovo_Operatore</t>
-  </si>
-  <si>
-    <t>Data_Cambio</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1603,7 @@
         <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1632,7 +1641,7 @@
         <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1658,6 +1667,9 @@
       <c r="B79" t="s">
         <v>174</v>
       </c>
+      <c r="C79" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
@@ -1787,7 +1799,7 @@
         <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1809,7 +1821,7 @@
         <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1827,44 +1839,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
         <v>174</v>
       </c>
-      <c r="C3" t="s">
-        <v>138</v>
-      </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="207">
   <si>
     <t>targa</t>
   </si>
@@ -344,295 +344,298 @@
     <t>ALESSIA.DE LUCA</t>
   </si>
   <si>
+    <t>LELLA DARIO (INCIDENTATA FARE PRATICA - DECUNCIA CC)</t>
+  </si>
+  <si>
+    <t>ALEMANNO.PIERPAOLO 28-07 TEMPORANEO</t>
+  </si>
+  <si>
+    <t>CINZIA.D'ORAZIO</t>
+  </si>
+  <si>
+    <t>DI TIZIO.VALENTINA</t>
+  </si>
+  <si>
+    <t>ELENA DELL'ARCIPRETE</t>
+  </si>
+  <si>
+    <t>PARDI ELIANA</t>
+  </si>
+  <si>
+    <t>GAIA.MARTI</t>
+  </si>
+  <si>
+    <t>DAVIDE.BONFITTO</t>
+  </si>
+  <si>
+    <t>JANE.LUCIANO</t>
+  </si>
+  <si>
+    <t>MARATEA.FELICIA</t>
+  </si>
+  <si>
+    <t>ANTONIO.BRUNO</t>
+  </si>
+  <si>
+    <t>MARIA.LUCIANO</t>
+  </si>
+  <si>
+    <t>MIMOZA.TREPSENISHTI</t>
+  </si>
+  <si>
+    <t>ELEONORA:PERINO</t>
+  </si>
+  <si>
+    <t>LORENZA.COLABRUNO</t>
+  </si>
+  <si>
+    <t>MICAELA.POSTIGLIONE</t>
+  </si>
+  <si>
+    <t>MARCO.VIOLA</t>
+  </si>
+  <si>
+    <t>ARSONELA-MUCA</t>
+  </si>
+  <si>
+    <t>MICHELA.VOCIONE</t>
+  </si>
+  <si>
+    <t>FEDERICA.DIREMIGIO</t>
+  </si>
+  <si>
+    <t>MARIALUCIA.DELRE</t>
+  </si>
+  <si>
+    <t>NATHALIE.BOVE</t>
+  </si>
+  <si>
+    <t>SECRIERU.NATALIA</t>
+  </si>
+  <si>
+    <t>FELICIA.FALCONIO</t>
+  </si>
+  <si>
+    <t>AURORA.TARANTINI</t>
+  </si>
+  <si>
+    <t>PIERPAOLO.ALEMANNO</t>
+  </si>
+  <si>
+    <t>ESTER.FECONDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADIR.FINIZII </t>
+  </si>
+  <si>
+    <t>LEPORATI PEREZ.MELANY LUNA</t>
+  </si>
+  <si>
+    <t>LELLA DARIO</t>
+  </si>
+  <si>
+    <t>DIEGO.PANTALONE</t>
+  </si>
+  <si>
+    <t>MARCELLA.TRIVARELLI</t>
+  </si>
+  <si>
+    <t>GIADA.GIANSALVO</t>
+  </si>
+  <si>
+    <t>GIULIA.RENZETTI</t>
+  </si>
+  <si>
+    <t>LORELLAD'ORTONA</t>
+  </si>
+  <si>
+    <t>FINE RENT</t>
+  </si>
+  <si>
+    <t>SIMONA.TURDò</t>
+  </si>
+  <si>
+    <t>NOD PESCARA</t>
+  </si>
+  <si>
+    <t>CANDELORO AUGUSTA</t>
+  </si>
+  <si>
+    <t>MATTEO.CERRITETLLI</t>
+  </si>
+  <si>
+    <t>MILENA.IANNIELLO</t>
+  </si>
+  <si>
+    <t>DOINA.ATANASOAEI</t>
+  </si>
+  <si>
+    <t>DAVIDE.DI CRISTOFARO</t>
+  </si>
+  <si>
+    <t>FRANCESCO.DI.DOMENICANTONIO</t>
+  </si>
+  <si>
+    <t>NORA.CIMINO</t>
+  </si>
+  <si>
+    <t>GIANLUCA.LUCIANI</t>
+  </si>
+  <si>
+    <t>ALESSIO.PELLICCIA</t>
+  </si>
+  <si>
+    <t>NARDECCHIA CHIARA</t>
+  </si>
+  <si>
+    <t>GIUSEPPE.GRAVINA</t>
+  </si>
+  <si>
+    <t>BEATRICE.D'INNOCENZO</t>
+  </si>
+  <si>
+    <t>FRANCESCA.COTOLESSA</t>
+  </si>
+  <si>
+    <t>PITOLI.PAULA RENATA</t>
+  </si>
+  <si>
+    <t>CONSOL</t>
+  </si>
+  <si>
+    <t>ANTONINO.MICOZZI</t>
+  </si>
+  <si>
+    <t>PAOLA.VADANESCU</t>
+  </si>
+  <si>
+    <t>MOANA.DIFRANCESCO</t>
+  </si>
+  <si>
+    <t>SALVATORE.ALEMANNI</t>
+  </si>
+  <si>
+    <t>MARICA.SPADACCINI</t>
+  </si>
+  <si>
+    <t>TONIA DE TOMMASO</t>
+  </si>
+  <si>
+    <t>BRAGHINI MATTEO</t>
+  </si>
+  <si>
+    <t>CHRISTIAN.VERNA</t>
+  </si>
+  <si>
+    <t>PACELLA VALERY</t>
+  </si>
+  <si>
+    <t>DI LORETO FABIO</t>
+  </si>
+  <si>
+    <t>LAURA.STANISCI</t>
+  </si>
+  <si>
+    <t>SABINA.LANCIA</t>
+  </si>
+  <si>
+    <t>MASCIARELLI MAURIZIO</t>
+  </si>
+  <si>
+    <t>IEZZI.SERENA</t>
+  </si>
+  <si>
+    <t>MARCO.DI.NIZO</t>
+  </si>
+  <si>
+    <t>GIAMPIERO.RICUCCI</t>
+  </si>
+  <si>
+    <t>SARA.VALLERI</t>
+  </si>
+  <si>
+    <t>VALERIO.D'ANTONIO</t>
+  </si>
+  <si>
+    <t>YOEL.DESPAIGNE</t>
+  </si>
+  <si>
+    <t>ERIKA.PATELLA</t>
+  </si>
+  <si>
+    <t>SCACCIA FEDERICA</t>
+  </si>
+  <si>
+    <t>SOFIA.D'ANGELO</t>
+  </si>
+  <si>
+    <t>COCO.FEDERICO</t>
+  </si>
+  <si>
+    <t>CARAVAGGIO.MARISA</t>
+  </si>
+  <si>
+    <t>CHIARA.MANCINI</t>
+  </si>
+  <si>
+    <t>MATTEO.CAVACINI</t>
+  </si>
+  <si>
+    <t>COMPARELLI</t>
+  </si>
+  <si>
+    <t>KALOV SLAVI KRASIMIROV</t>
+  </si>
+  <si>
+    <t>GIOBBE MICHELE</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
+  </si>
+  <si>
+    <t>DI IANNI FELICIA</t>
+  </si>
+  <si>
     <t>DARIO.LELLA</t>
-  </si>
-  <si>
-    <t>ALEMANNO.PIERPAOLO 28-07 TEMPORANEO</t>
-  </si>
-  <si>
-    <t>CINZIA.D'ORAZIO</t>
-  </si>
-  <si>
-    <t>DI TIZIO.VALENTINA</t>
-  </si>
-  <si>
-    <t>ELENA DELL'ARCIPRETE</t>
-  </si>
-  <si>
-    <t>PARDI ELIANA</t>
-  </si>
-  <si>
-    <t>GAIA.MARTI</t>
-  </si>
-  <si>
-    <t>DAVIDE.BONFITTO</t>
-  </si>
-  <si>
-    <t>JANE.LUCIANO</t>
-  </si>
-  <si>
-    <t>MARATEA.FELICIA</t>
-  </si>
-  <si>
-    <t>ANTONIO.BRUNO</t>
-  </si>
-  <si>
-    <t>MARIA.LUCIANO</t>
-  </si>
-  <si>
-    <t>MIMOZA.TREPSENISHTI</t>
-  </si>
-  <si>
-    <t>ELEONORA:PERINO</t>
-  </si>
-  <si>
-    <t>LORENZA.COLABRUNO</t>
-  </si>
-  <si>
-    <t>MICAELA.POSTIGLIONE</t>
-  </si>
-  <si>
-    <t>MARCO.VIOLA</t>
-  </si>
-  <si>
-    <t>ARSONELA-MUCA</t>
-  </si>
-  <si>
-    <t>MICHELA.VOCIONE</t>
-  </si>
-  <si>
-    <t>FEDERICA.DIREMIGIO</t>
-  </si>
-  <si>
-    <t>MARIALUCIA.DELRE</t>
-  </si>
-  <si>
-    <t>NATHALIE.BOVE</t>
-  </si>
-  <si>
-    <t>SECRIERU.NATALIA</t>
-  </si>
-  <si>
-    <t>FELICIA.FALCONIO</t>
-  </si>
-  <si>
-    <t>AURORA.TARANTINI</t>
-  </si>
-  <si>
-    <t>PIERPAOLO.ALEMANNO</t>
-  </si>
-  <si>
-    <t>ESTER.FECONDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NADIR.FINIZII </t>
-  </si>
-  <si>
-    <t>LEPORATI PEREZ.MELANY LUNA</t>
-  </si>
-  <si>
-    <t>DI IANNI FELICIA</t>
-  </si>
-  <si>
-    <t>DIEGO.PANTALONE</t>
-  </si>
-  <si>
-    <t>MARCELLA.TRIVARELLI</t>
-  </si>
-  <si>
-    <t>GIADA.GIANSALVO</t>
-  </si>
-  <si>
-    <t>GIULIA.RENZETTI</t>
-  </si>
-  <si>
-    <t>LORELLAD'ORTONA</t>
-  </si>
-  <si>
-    <t>FINE RENT</t>
-  </si>
-  <si>
-    <t>SIMONA.TURDò</t>
-  </si>
-  <si>
-    <t>NOD PESCARA</t>
-  </si>
-  <si>
-    <t>CANDELORO AUGUSTA</t>
-  </si>
-  <si>
-    <t>MATTEO.CERRITETLLI</t>
-  </si>
-  <si>
-    <t>MILENA.IANNIELLO</t>
-  </si>
-  <si>
-    <t>DOINA.ATANASOAEI</t>
-  </si>
-  <si>
-    <t>DAVIDE.DI CRISTOFARO</t>
-  </si>
-  <si>
-    <t>FRANCESCO.DI.DOMENICANTONIO</t>
-  </si>
-  <si>
-    <t>NORA.CIMINO</t>
-  </si>
-  <si>
-    <t>GIANLUCA.LUCIANI</t>
-  </si>
-  <si>
-    <t>ALESSIO.PELLICCIA</t>
-  </si>
-  <si>
-    <t>NARDECCHIA CHIARA</t>
-  </si>
-  <si>
-    <t>GIUSEPPE.GRAVINA</t>
-  </si>
-  <si>
-    <t>BEATRICE.D'INNOCENZO</t>
-  </si>
-  <si>
-    <t>FRANCESCA.COTOLESSA</t>
-  </si>
-  <si>
-    <t>PITOLI.PAULA RENATA</t>
-  </si>
-  <si>
-    <t>CONSOL</t>
-  </si>
-  <si>
-    <t>ANTONINO.MICOZZI</t>
-  </si>
-  <si>
-    <t>PAOLA.VADANESCU</t>
-  </si>
-  <si>
-    <t>MOANA.DIFRANCESCO</t>
-  </si>
-  <si>
-    <t>SALVATORE.ALEMANNI</t>
-  </si>
-  <si>
-    <t>MARICA.SPADACCINI</t>
-  </si>
-  <si>
-    <t>TONIA DE TOMMASO</t>
-  </si>
-  <si>
-    <t>BRAGHINI MATTEO</t>
-  </si>
-  <si>
-    <t>CHRISTIAN.VERNA</t>
-  </si>
-  <si>
-    <t>PACELLA VALERY</t>
-  </si>
-  <si>
-    <t>DI LORETO FABIO</t>
-  </si>
-  <si>
-    <t>LAURA.STANISCI</t>
-  </si>
-  <si>
-    <t>SABINA.LANCIA</t>
-  </si>
-  <si>
-    <t>MASCIARELLI MAURIZIO</t>
-  </si>
-  <si>
-    <t>IEZZI.SERENA</t>
-  </si>
-  <si>
-    <t>MARCO.DI.NIZO</t>
-  </si>
-  <si>
-    <t>GIAMPIERO.RICUCCI</t>
-  </si>
-  <si>
-    <t>SARA.VALLERI</t>
-  </si>
-  <si>
-    <t>VALERIO.D'ANTONIO</t>
-  </si>
-  <si>
-    <t>YOEL.DESPAIGNE</t>
-  </si>
-  <si>
-    <t>ERIKA.PATELLA</t>
-  </si>
-  <si>
-    <t>SCACCIA FEDERICA</t>
-  </si>
-  <si>
-    <t>SOFIA.D'ANGELO</t>
-  </si>
-  <si>
-    <t>COCO.FEDERICO</t>
-  </si>
-  <si>
-    <t>CARAVAGGIO.MARISA</t>
-  </si>
-  <si>
-    <t>CHIARA.MANCINI</t>
-  </si>
-  <si>
-    <t>MATTEO.CAVACINI</t>
-  </si>
-  <si>
-    <t>COMPARELLI</t>
-  </si>
-  <si>
-    <t>KALOV SLAVI KRASIMIROV</t>
-  </si>
-  <si>
-    <t>GIOBBE MICHELE</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-01-23</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>Targa</t>
-  </si>
-  <si>
-    <t>Operatore_Precedente</t>
-  </si>
-  <si>
-    <t>Nuovo_Operatore</t>
-  </si>
-  <si>
-    <t>Data_Cambio</t>
-  </si>
-  <si>
-    <t>DA ASSEGNARE (BENEGIAMO MALATTIA LUNGA)</t>
-  </si>
-  <si>
-    <t>DA ASSEGNARE</t>
   </si>
 </sst>
 </file>
@@ -1115,6 +1118,9 @@
       <c r="B13" t="s">
         <v>109</v>
       </c>
+      <c r="C13" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
@@ -1148,7 +1154,7 @@
         <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1159,7 +1165,7 @@
         <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1354,7 +1360,7 @@
         <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1630,7 +1636,7 @@
         <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1810,7 +1816,7 @@
         <v>190</v>
       </c>
       <c r="C96" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1839,44 +1845,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="206">
   <si>
     <t>targa</t>
   </si>
@@ -530,112 +530,109 @@
     <t>PACELLA VALERY</t>
   </si>
   <si>
+    <t>DA ASSEGNARE</t>
+  </si>
+  <si>
+    <t>LAURA.STANISCI</t>
+  </si>
+  <si>
+    <t>SABINA.LANCIA</t>
+  </si>
+  <si>
+    <t>MASCIARELLI MAURIZIO</t>
+  </si>
+  <si>
+    <t>IEZZI.SERENA</t>
+  </si>
+  <si>
+    <t>MARCO.DI.NIZO</t>
+  </si>
+  <si>
+    <t>GIAMPIERO.RICUCCI</t>
+  </si>
+  <si>
+    <t>SARA.VALLERI</t>
+  </si>
+  <si>
+    <t>VALERIO.D'ANTONIO</t>
+  </si>
+  <si>
+    <t>YOEL.DESPAIGNE</t>
+  </si>
+  <si>
+    <t>ERIKA.PATELLA</t>
+  </si>
+  <si>
+    <t>SCACCIA FEDERICA</t>
+  </si>
+  <si>
+    <t>SOFIA.D'ANGELO</t>
+  </si>
+  <si>
+    <t>COCO.FEDERICO</t>
+  </si>
+  <si>
+    <t>CARAVAGGIO.MARISA</t>
+  </si>
+  <si>
+    <t>CHIARA.MANCINI</t>
+  </si>
+  <si>
+    <t>MATTEO.CAVACINI</t>
+  </si>
+  <si>
+    <t>COMPARELLI</t>
+  </si>
+  <si>
+    <t>KALOV SLAVI KRASIMIROV</t>
+  </si>
+  <si>
+    <t>GIOBBE MICHELE</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
+  </si>
+  <si>
     <t>DI LORETO FABIO</t>
-  </si>
-  <si>
-    <t>LAURA.STANISCI</t>
-  </si>
-  <si>
-    <t>SABINA.LANCIA</t>
-  </si>
-  <si>
-    <t>MASCIARELLI MAURIZIO</t>
-  </si>
-  <si>
-    <t>IEZZI.SERENA</t>
-  </si>
-  <si>
-    <t>MARCO.DI.NIZO</t>
-  </si>
-  <si>
-    <t>GIAMPIERO.RICUCCI</t>
-  </si>
-  <si>
-    <t>SARA.VALLERI</t>
-  </si>
-  <si>
-    <t>VALERIO.D'ANTONIO</t>
-  </si>
-  <si>
-    <t>YOEL.DESPAIGNE</t>
-  </si>
-  <si>
-    <t>ERIKA.PATELLA</t>
-  </si>
-  <si>
-    <t>SCACCIA FEDERICA</t>
-  </si>
-  <si>
-    <t>SOFIA.D'ANGELO</t>
-  </si>
-  <si>
-    <t>COCO.FEDERICO</t>
-  </si>
-  <si>
-    <t>CARAVAGGIO.MARISA</t>
-  </si>
-  <si>
-    <t>CHIARA.MANCINI</t>
-  </si>
-  <si>
-    <t>MATTEO.CAVACINI</t>
-  </si>
-  <si>
-    <t>COMPARELLI</t>
-  </si>
-  <si>
-    <t>KALOV SLAVI KRASIMIROV</t>
-  </si>
-  <si>
-    <t>GIOBBE MICHELE</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2026-01-23</t>
-  </si>
-  <si>
-    <t>Targa</t>
-  </si>
-  <si>
-    <t>Operatore_Precedente</t>
-  </si>
-  <si>
-    <t>Nuovo_Operatore</t>
-  </si>
-  <si>
-    <t>Data_Cambio</t>
-  </si>
-  <si>
-    <t>DI IANNI FELICIA</t>
-  </si>
-  <si>
-    <t>DARIO.LELLA</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1834,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1859,30 +1856,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="207">
   <si>
     <t>targa</t>
   </si>
@@ -362,277 +362,280 @@
     <t>PARDI ELIANA</t>
   </si>
   <si>
+    <t>DA ASSEGNARE(MANDARE IN ASSISTENZA)</t>
+  </si>
+  <si>
+    <t>DAVIDE.BONFITTO</t>
+  </si>
+  <si>
+    <t>JANE.LUCIANO</t>
+  </si>
+  <si>
+    <t>MARATEA.FELICIA</t>
+  </si>
+  <si>
+    <t>ANTONIO.BRUNO</t>
+  </si>
+  <si>
+    <t>MARIA.LUCIANO</t>
+  </si>
+  <si>
+    <t>MIMOZA.TREPSENISHTI</t>
+  </si>
+  <si>
+    <t>ELEONORA:PERINO</t>
+  </si>
+  <si>
+    <t>LORENZA.COLABRUNO</t>
+  </si>
+  <si>
+    <t>MICAELA.POSTIGLIONE</t>
+  </si>
+  <si>
+    <t>MARCO.VIOLA</t>
+  </si>
+  <si>
+    <t>ARSONELA-MUCA</t>
+  </si>
+  <si>
+    <t>MICHELA.VOCIONE</t>
+  </si>
+  <si>
+    <t>FEDERICA.DIREMIGIO</t>
+  </si>
+  <si>
+    <t>MARIALUCIA.DELRE</t>
+  </si>
+  <si>
+    <t>NATHALIE.BOVE</t>
+  </si>
+  <si>
+    <t>SECRIERU.NATALIA</t>
+  </si>
+  <si>
+    <t>FELICIA.FALCONIO</t>
+  </si>
+  <si>
+    <t>AURORA.TARANTINI</t>
+  </si>
+  <si>
+    <t>PIERPAOLO.ALEMANNO</t>
+  </si>
+  <si>
+    <t>ESTER.FECONDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADIR.FINIZII </t>
+  </si>
+  <si>
+    <t>LEPORATI PEREZ.MELANY LUNA</t>
+  </si>
+  <si>
+    <t>LELLA DARIO</t>
+  </si>
+  <si>
+    <t>DIEGO.PANTALONE</t>
+  </si>
+  <si>
+    <t>MARCELLA.TRIVARELLI</t>
+  </si>
+  <si>
+    <t>GIADA.GIANSALVO</t>
+  </si>
+  <si>
+    <t>GIULIA.RENZETTI</t>
+  </si>
+  <si>
+    <t>LORELLAD'ORTONA</t>
+  </si>
+  <si>
+    <t>FINE RENT</t>
+  </si>
+  <si>
+    <t>SIMONA.TURDò</t>
+  </si>
+  <si>
+    <t>NOD PESCARA</t>
+  </si>
+  <si>
+    <t>CANDELORO AUGUSTA</t>
+  </si>
+  <si>
+    <t>MATTEO.CERRITETLLI</t>
+  </si>
+  <si>
+    <t>MILENA.IANNIELLO</t>
+  </si>
+  <si>
+    <t>DOINA.ATANASOAEI</t>
+  </si>
+  <si>
+    <t>DAVIDE.DI CRISTOFARO</t>
+  </si>
+  <si>
+    <t>FRANCESCO.DI.DOMENICANTONIO</t>
+  </si>
+  <si>
+    <t>NORA.CIMINO</t>
+  </si>
+  <si>
+    <t>GIANLUCA.LUCIANI</t>
+  </si>
+  <si>
+    <t>ALESSIO.PELLICCIA</t>
+  </si>
+  <si>
+    <t>NARDECCHIA CHIARA</t>
+  </si>
+  <si>
+    <t>GIUSEPPE.GRAVINA</t>
+  </si>
+  <si>
+    <t>BEATRICE.D'INNOCENZO</t>
+  </si>
+  <si>
+    <t>FRANCESCA.COTOLESSA</t>
+  </si>
+  <si>
+    <t>PITOLI.PAULA RENATA</t>
+  </si>
+  <si>
+    <t>CONSOL</t>
+  </si>
+  <si>
+    <t>ANTONINO.MICOZZI</t>
+  </si>
+  <si>
+    <t>PAOLA.VADANESCU</t>
+  </si>
+  <si>
+    <t>MOANA.DIFRANCESCO</t>
+  </si>
+  <si>
+    <t>SALVATORE.ALEMANNI</t>
+  </si>
+  <si>
+    <t>MARICA.SPADACCINI</t>
+  </si>
+  <si>
+    <t>TONIA DE TOMMASO</t>
+  </si>
+  <si>
+    <t>BRAGHINI MATTEO</t>
+  </si>
+  <si>
+    <t>CHRISTIAN.VERNA</t>
+  </si>
+  <si>
+    <t>PACELLA VALERY</t>
+  </si>
+  <si>
+    <t>ROCCO ZACCAGNIGNO (MOMENTANEO, SUA IN ASSISTENZA)</t>
+  </si>
+  <si>
+    <t>LAURA.STANISCI</t>
+  </si>
+  <si>
+    <t>SABINA.LANCIA</t>
+  </si>
+  <si>
+    <t>MASCIARELLI MAURIZIO</t>
+  </si>
+  <si>
+    <t>IEZZI.SERENA</t>
+  </si>
+  <si>
+    <t>MARCO.DI.NIZO</t>
+  </si>
+  <si>
+    <t>GIAMPIERO.RICUCCI</t>
+  </si>
+  <si>
+    <t>SARA.VALLERI</t>
+  </si>
+  <si>
+    <t>VALERIO.D'ANTONIO</t>
+  </si>
+  <si>
+    <t>YOEL.DESPAIGNE</t>
+  </si>
+  <si>
+    <t>ERIKA.PATELLA</t>
+  </si>
+  <si>
+    <t>SCACCIA FEDERICA</t>
+  </si>
+  <si>
+    <t>SOFIA.D'ANGELO</t>
+  </si>
+  <si>
+    <t>COCO.FEDERICO</t>
+  </si>
+  <si>
+    <t>CARAVAGGIO.MARISA</t>
+  </si>
+  <si>
+    <t>CHIARA.MANCINI</t>
+  </si>
+  <si>
+    <t>MATTEO.CAVACINI</t>
+  </si>
+  <si>
+    <t>COMPARELLI</t>
+  </si>
+  <si>
+    <t>KALOV SLAVI KRASIMIROV</t>
+  </si>
+  <si>
+    <t>GIOBBE MICHELE</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
+  </si>
+  <si>
     <t>GAIA.MARTI</t>
   </si>
   <si>
-    <t>DAVIDE.BONFITTO</t>
-  </si>
-  <si>
-    <t>JANE.LUCIANO</t>
-  </si>
-  <si>
-    <t>MARATEA.FELICIA</t>
-  </si>
-  <si>
-    <t>ANTONIO.BRUNO</t>
-  </si>
-  <si>
-    <t>MARIA.LUCIANO</t>
-  </si>
-  <si>
-    <t>MIMOZA.TREPSENISHTI</t>
-  </si>
-  <si>
-    <t>ELEONORA:PERINO</t>
-  </si>
-  <si>
-    <t>LORENZA.COLABRUNO</t>
-  </si>
-  <si>
-    <t>MICAELA.POSTIGLIONE</t>
-  </si>
-  <si>
-    <t>MARCO.VIOLA</t>
-  </si>
-  <si>
-    <t>ARSONELA-MUCA</t>
-  </si>
-  <si>
-    <t>MICHELA.VOCIONE</t>
-  </si>
-  <si>
-    <t>FEDERICA.DIREMIGIO</t>
-  </si>
-  <si>
-    <t>MARIALUCIA.DELRE</t>
-  </si>
-  <si>
-    <t>NATHALIE.BOVE</t>
-  </si>
-  <si>
-    <t>SECRIERU.NATALIA</t>
-  </si>
-  <si>
-    <t>FELICIA.FALCONIO</t>
-  </si>
-  <si>
-    <t>AURORA.TARANTINI</t>
-  </si>
-  <si>
-    <t>PIERPAOLO.ALEMANNO</t>
-  </si>
-  <si>
-    <t>ESTER.FECONDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NADIR.FINIZII </t>
-  </si>
-  <si>
-    <t>LEPORATI PEREZ.MELANY LUNA</t>
-  </si>
-  <si>
-    <t>LELLA DARIO</t>
-  </si>
-  <si>
-    <t>DIEGO.PANTALONE</t>
-  </si>
-  <si>
-    <t>MARCELLA.TRIVARELLI</t>
-  </si>
-  <si>
-    <t>GIADA.GIANSALVO</t>
-  </si>
-  <si>
-    <t>GIULIA.RENZETTI</t>
-  </si>
-  <si>
-    <t>LORELLAD'ORTONA</t>
-  </si>
-  <si>
-    <t>FINE RENT</t>
-  </si>
-  <si>
-    <t>SIMONA.TURDò</t>
-  </si>
-  <si>
-    <t>NOD PESCARA</t>
-  </si>
-  <si>
-    <t>CANDELORO AUGUSTA</t>
-  </si>
-  <si>
-    <t>MATTEO.CERRITETLLI</t>
-  </si>
-  <si>
-    <t>MILENA.IANNIELLO</t>
-  </si>
-  <si>
-    <t>DOINA.ATANASOAEI</t>
-  </si>
-  <si>
-    <t>DAVIDE.DI CRISTOFARO</t>
-  </si>
-  <si>
-    <t>FRANCESCO.DI.DOMENICANTONIO</t>
-  </si>
-  <si>
-    <t>NORA.CIMINO</t>
-  </si>
-  <si>
-    <t>GIANLUCA.LUCIANI</t>
-  </si>
-  <si>
-    <t>ALESSIO.PELLICCIA</t>
-  </si>
-  <si>
-    <t>NARDECCHIA CHIARA</t>
-  </si>
-  <si>
-    <t>GIUSEPPE.GRAVINA</t>
-  </si>
-  <si>
-    <t>BEATRICE.D'INNOCENZO</t>
-  </si>
-  <si>
-    <t>FRANCESCA.COTOLESSA</t>
-  </si>
-  <si>
-    <t>PITOLI.PAULA RENATA</t>
-  </si>
-  <si>
-    <t>CONSOL</t>
-  </si>
-  <si>
-    <t>ANTONINO.MICOZZI</t>
-  </si>
-  <si>
-    <t>PAOLA.VADANESCU</t>
-  </si>
-  <si>
-    <t>MOANA.DIFRANCESCO</t>
-  </si>
-  <si>
-    <t>SALVATORE.ALEMANNI</t>
-  </si>
-  <si>
-    <t>MARICA.SPADACCINI</t>
-  </si>
-  <si>
-    <t>TONIA DE TOMMASO</t>
-  </si>
-  <si>
-    <t>BRAGHINI MATTEO</t>
-  </si>
-  <si>
-    <t>CHRISTIAN.VERNA</t>
-  </si>
-  <si>
-    <t>PACELLA VALERY</t>
-  </si>
-  <si>
     <t>DA ASSEGNARE</t>
-  </si>
-  <si>
-    <t>LAURA.STANISCI</t>
-  </si>
-  <si>
-    <t>SABINA.LANCIA</t>
-  </si>
-  <si>
-    <t>MASCIARELLI MAURIZIO</t>
-  </si>
-  <si>
-    <t>IEZZI.SERENA</t>
-  </si>
-  <si>
-    <t>MARCO.DI.NIZO</t>
-  </si>
-  <si>
-    <t>GIAMPIERO.RICUCCI</t>
-  </si>
-  <si>
-    <t>SARA.VALLERI</t>
-  </si>
-  <si>
-    <t>VALERIO.D'ANTONIO</t>
-  </si>
-  <si>
-    <t>YOEL.DESPAIGNE</t>
-  </si>
-  <si>
-    <t>ERIKA.PATELLA</t>
-  </si>
-  <si>
-    <t>SCACCIA FEDERICA</t>
-  </si>
-  <si>
-    <t>SOFIA.D'ANGELO</t>
-  </si>
-  <si>
-    <t>COCO.FEDERICO</t>
-  </si>
-  <si>
-    <t>CARAVAGGIO.MARISA</t>
-  </si>
-  <si>
-    <t>CHIARA.MANCINI</t>
-  </si>
-  <si>
-    <t>MATTEO.CAVACINI</t>
-  </si>
-  <si>
-    <t>COMPARELLI</t>
-  </si>
-  <si>
-    <t>KALOV SLAVI KRASIMIROV</t>
-  </si>
-  <si>
-    <t>GIOBBE MICHELE</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2026-02-02</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2026-01-23</t>
-  </si>
-  <si>
-    <t>Targa</t>
-  </si>
-  <si>
-    <t>Operatore_Precedente</t>
-  </si>
-  <si>
-    <t>Nuovo_Operatore</t>
-  </si>
-  <si>
-    <t>Data_Cambio</t>
-  </si>
-  <si>
-    <t>DI LORETO FABIO</t>
   </si>
 </sst>
 </file>
@@ -1172,6 +1175,9 @@
       <c r="B19" t="s">
         <v>115</v>
       </c>
+      <c r="C19" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
@@ -1432,7 +1438,7 @@
         <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1606,7 +1612,7 @@
         <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1644,7 +1650,7 @@
         <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1671,7 +1677,7 @@
         <v>174</v>
       </c>
       <c r="C79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1834,7 +1840,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1856,16 +1862,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>205</v>
       </c>
       <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
         <v>171</v>
       </c>
-      <c r="D2" t="s">
-        <v>198</v>
+      <c r="D3" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="208">
   <si>
     <t>targa</t>
   </si>
@@ -368,274 +368,277 @@
     <t>DAVIDE.BONFITTO</t>
   </si>
   <si>
+    <t>PASQUARELLI IN ASSISTENZA (JANE QUANDO RIENTRA)</t>
+  </si>
+  <si>
+    <t>MARATEA.FELICIA</t>
+  </si>
+  <si>
+    <t>ANTONIO.BRUNO</t>
+  </si>
+  <si>
+    <t>MARIA.LUCIANO</t>
+  </si>
+  <si>
+    <t>MIMOZA.TREPSENISHTI</t>
+  </si>
+  <si>
+    <t>ELEONORA:PERINO</t>
+  </si>
+  <si>
+    <t>LORENZA.COLABRUNO</t>
+  </si>
+  <si>
+    <t>MICAELA.POSTIGLIONE</t>
+  </si>
+  <si>
+    <t>DA ASSEGNARE</t>
+  </si>
+  <si>
+    <t>ARSONELA-MUCA</t>
+  </si>
+  <si>
+    <t>MICHELA.VOCIONE</t>
+  </si>
+  <si>
+    <t>FEDERICA.DIREMIGIO</t>
+  </si>
+  <si>
+    <t>MARIALUCIA.DELRE</t>
+  </si>
+  <si>
+    <t>NATHALIE.BOVE</t>
+  </si>
+  <si>
+    <t>SECRIERU.NATALIA</t>
+  </si>
+  <si>
+    <t>FELICIA.FALCONIO</t>
+  </si>
+  <si>
+    <t>AURORA.TARANTINI</t>
+  </si>
+  <si>
+    <t>PIERPAOLO.ALEMANNO</t>
+  </si>
+  <si>
+    <t>ESTER.FECONDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADIR.FINIZII </t>
+  </si>
+  <si>
+    <t>LEPORATI PEREZ.MELANY LUNA</t>
+  </si>
+  <si>
+    <t>LELLA DARIO</t>
+  </si>
+  <si>
+    <t>DIEGO.PANTALONE</t>
+  </si>
+  <si>
+    <t>MARCELLA.TRIVARELLI</t>
+  </si>
+  <si>
+    <t>GIADA.GIANSALVO</t>
+  </si>
+  <si>
+    <t>GIULIA.RENZETTI</t>
+  </si>
+  <si>
+    <t>LORELLAD'ORTONA</t>
+  </si>
+  <si>
+    <t>FINE RENT</t>
+  </si>
+  <si>
+    <t>SIMONA.TURDò</t>
+  </si>
+  <si>
+    <t>NOD PESCARA</t>
+  </si>
+  <si>
+    <t>CANDELORO AUGUSTA</t>
+  </si>
+  <si>
+    <t>MATTEO.CERRITETLLI</t>
+  </si>
+  <si>
+    <t>MILENA.IANNIELLO</t>
+  </si>
+  <si>
+    <t>DOINA.ATANASOAEI</t>
+  </si>
+  <si>
+    <t>DAVIDE.DI CRISTOFARO</t>
+  </si>
+  <si>
+    <t>FRANCESCO.DI.DOMENICANTONIO</t>
+  </si>
+  <si>
+    <t>NORA.CIMINO</t>
+  </si>
+  <si>
+    <t>GIANLUCA.LUCIANI</t>
+  </si>
+  <si>
+    <t>ALESSIO.PELLICCIA</t>
+  </si>
+  <si>
+    <t>NARDECCHIA CHIARA</t>
+  </si>
+  <si>
+    <t>GIUSEPPE.GRAVINA</t>
+  </si>
+  <si>
+    <t>BEATRICE.D'INNOCENZO</t>
+  </si>
+  <si>
+    <t>FRANCESCA.COTOLESSA</t>
+  </si>
+  <si>
+    <t>PITOLI.PAULA RENATA</t>
+  </si>
+  <si>
+    <t>CONSOL</t>
+  </si>
+  <si>
+    <t>ANTONINO.MICOZZI</t>
+  </si>
+  <si>
+    <t>PAOLA.VADANESCU</t>
+  </si>
+  <si>
+    <t>MOANA.DIFRANCESCO</t>
+  </si>
+  <si>
+    <t>SALVATORE.ALEMANNI</t>
+  </si>
+  <si>
+    <t>MARICA.SPADACCINI</t>
+  </si>
+  <si>
+    <t>TONIA DE TOMMASO</t>
+  </si>
+  <si>
+    <t>BRAGHINI MATTEO</t>
+  </si>
+  <si>
     <t>JANE.LUCIANO</t>
   </si>
   <si>
-    <t>MARATEA.FELICIA</t>
-  </si>
-  <si>
-    <t>ANTONIO.BRUNO</t>
-  </si>
-  <si>
-    <t>MARIA.LUCIANO</t>
-  </si>
-  <si>
-    <t>MIMOZA.TREPSENISHTI</t>
-  </si>
-  <si>
-    <t>ELEONORA:PERINO</t>
-  </si>
-  <si>
-    <t>LORENZA.COLABRUNO</t>
-  </si>
-  <si>
-    <t>MICAELA.POSTIGLIONE</t>
+    <t>CHRISTIAN.VERNA</t>
+  </si>
+  <si>
+    <t>PACELLA VALERY</t>
+  </si>
+  <si>
+    <t>ROCCO ZACCAGNIGNO (MOMENTANEO, SUA IN ASSISTENZA)</t>
+  </si>
+  <si>
+    <t>LAURA.STANISCI</t>
+  </si>
+  <si>
+    <t>SABINA.LANCIA</t>
+  </si>
+  <si>
+    <t>MASCIARELLI MAURIZIO</t>
+  </si>
+  <si>
+    <t>IEZZI.SERENA</t>
+  </si>
+  <si>
+    <t>MARCO.DI.NIZO</t>
+  </si>
+  <si>
+    <t>GIAMPIERO.RICUCCI</t>
+  </si>
+  <si>
+    <t>SARA.VALLERI</t>
+  </si>
+  <si>
+    <t>VALERIO.D'ANTONIO</t>
+  </si>
+  <si>
+    <t>YOEL.DESPAIGNE</t>
+  </si>
+  <si>
+    <t>ERIKA.PATELLA</t>
+  </si>
+  <si>
+    <t>SCACCIA FEDERICA</t>
+  </si>
+  <si>
+    <t>SOFIA.D'ANGELO</t>
+  </si>
+  <si>
+    <t>COCO.FEDERICO</t>
+  </si>
+  <si>
+    <t>CARAVAGGIO.MARISA</t>
+  </si>
+  <si>
+    <t>CHIARA.MANCINI</t>
+  </si>
+  <si>
+    <t>MATTEO.CAVACINI</t>
+  </si>
+  <si>
+    <t>COMPARELLI</t>
+  </si>
+  <si>
+    <t>KALOV SLAVI KRASIMIROV</t>
+  </si>
+  <si>
+    <t>GIOBBE MICHELE</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
   </si>
   <si>
     <t>MARCO.VIOLA</t>
-  </si>
-  <si>
-    <t>ARSONELA-MUCA</t>
-  </si>
-  <si>
-    <t>MICHELA.VOCIONE</t>
-  </si>
-  <si>
-    <t>FEDERICA.DIREMIGIO</t>
-  </si>
-  <si>
-    <t>MARIALUCIA.DELRE</t>
-  </si>
-  <si>
-    <t>NATHALIE.BOVE</t>
-  </si>
-  <si>
-    <t>SECRIERU.NATALIA</t>
-  </si>
-  <si>
-    <t>FELICIA.FALCONIO</t>
-  </si>
-  <si>
-    <t>AURORA.TARANTINI</t>
-  </si>
-  <si>
-    <t>PIERPAOLO.ALEMANNO</t>
-  </si>
-  <si>
-    <t>ESTER.FECONDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NADIR.FINIZII </t>
-  </si>
-  <si>
-    <t>LEPORATI PEREZ.MELANY LUNA</t>
-  </si>
-  <si>
-    <t>LELLA DARIO</t>
-  </si>
-  <si>
-    <t>DIEGO.PANTALONE</t>
-  </si>
-  <si>
-    <t>MARCELLA.TRIVARELLI</t>
-  </si>
-  <si>
-    <t>GIADA.GIANSALVO</t>
-  </si>
-  <si>
-    <t>GIULIA.RENZETTI</t>
-  </si>
-  <si>
-    <t>LORELLAD'ORTONA</t>
-  </si>
-  <si>
-    <t>FINE RENT</t>
-  </si>
-  <si>
-    <t>SIMONA.TURDò</t>
-  </si>
-  <si>
-    <t>NOD PESCARA</t>
-  </si>
-  <si>
-    <t>CANDELORO AUGUSTA</t>
-  </si>
-  <si>
-    <t>MATTEO.CERRITETLLI</t>
-  </si>
-  <si>
-    <t>MILENA.IANNIELLO</t>
-  </si>
-  <si>
-    <t>DOINA.ATANASOAEI</t>
-  </si>
-  <si>
-    <t>DAVIDE.DI CRISTOFARO</t>
-  </si>
-  <si>
-    <t>FRANCESCO.DI.DOMENICANTONIO</t>
-  </si>
-  <si>
-    <t>NORA.CIMINO</t>
-  </si>
-  <si>
-    <t>GIANLUCA.LUCIANI</t>
-  </si>
-  <si>
-    <t>ALESSIO.PELLICCIA</t>
-  </si>
-  <si>
-    <t>NARDECCHIA CHIARA</t>
-  </si>
-  <si>
-    <t>GIUSEPPE.GRAVINA</t>
-  </si>
-  <si>
-    <t>BEATRICE.D'INNOCENZO</t>
-  </si>
-  <si>
-    <t>FRANCESCA.COTOLESSA</t>
-  </si>
-  <si>
-    <t>PITOLI.PAULA RENATA</t>
-  </si>
-  <si>
-    <t>CONSOL</t>
-  </si>
-  <si>
-    <t>ANTONINO.MICOZZI</t>
-  </si>
-  <si>
-    <t>PAOLA.VADANESCU</t>
-  </si>
-  <si>
-    <t>MOANA.DIFRANCESCO</t>
-  </si>
-  <si>
-    <t>SALVATORE.ALEMANNI</t>
-  </si>
-  <si>
-    <t>MARICA.SPADACCINI</t>
-  </si>
-  <si>
-    <t>TONIA DE TOMMASO</t>
-  </si>
-  <si>
-    <t>BRAGHINI MATTEO</t>
-  </si>
-  <si>
-    <t>CHRISTIAN.VERNA</t>
-  </si>
-  <si>
-    <t>PACELLA VALERY</t>
-  </si>
-  <si>
-    <t>ROCCO ZACCAGNIGNO (MOMENTANEO, SUA IN ASSISTENZA)</t>
-  </si>
-  <si>
-    <t>LAURA.STANISCI</t>
-  </si>
-  <si>
-    <t>SABINA.LANCIA</t>
-  </si>
-  <si>
-    <t>MASCIARELLI MAURIZIO</t>
-  </si>
-  <si>
-    <t>IEZZI.SERENA</t>
-  </si>
-  <si>
-    <t>MARCO.DI.NIZO</t>
-  </si>
-  <si>
-    <t>GIAMPIERO.RICUCCI</t>
-  </si>
-  <si>
-    <t>SARA.VALLERI</t>
-  </si>
-  <si>
-    <t>VALERIO.D'ANTONIO</t>
-  </si>
-  <si>
-    <t>YOEL.DESPAIGNE</t>
-  </si>
-  <si>
-    <t>ERIKA.PATELLA</t>
-  </si>
-  <si>
-    <t>SCACCIA FEDERICA</t>
-  </si>
-  <si>
-    <t>SOFIA.D'ANGELO</t>
-  </si>
-  <si>
-    <t>COCO.FEDERICO</t>
-  </si>
-  <si>
-    <t>CARAVAGGIO.MARISA</t>
-  </si>
-  <si>
-    <t>CHIARA.MANCINI</t>
-  </si>
-  <si>
-    <t>MATTEO.CAVACINI</t>
-  </si>
-  <si>
-    <t>COMPARELLI</t>
-  </si>
-  <si>
-    <t>KALOV SLAVI KRASIMIROV</t>
-  </si>
-  <si>
-    <t>GIOBBE MICHELE</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-02-03</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2026-01-23</t>
-  </si>
-  <si>
-    <t>Targa</t>
-  </si>
-  <si>
-    <t>Operatore_Precedente</t>
-  </si>
-  <si>
-    <t>Nuovo_Operatore</t>
-  </si>
-  <si>
-    <t>Data_Cambio</t>
-  </si>
-  <si>
-    <t>GAIA.MARTI</t>
-  </si>
-  <si>
-    <t>DA ASSEGNARE</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1033,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1068,7 +1071,7 @@
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1119,7 +1122,7 @@
         <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1154,7 +1157,7 @@
         <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1165,7 +1168,7 @@
         <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1176,7 +1179,7 @@
         <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1194,6 +1197,9 @@
       <c r="B21" t="s">
         <v>117</v>
       </c>
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
@@ -1258,6 +1264,9 @@
       <c r="B29" t="s">
         <v>125</v>
       </c>
+      <c r="C29" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
@@ -1363,7 +1372,7 @@
         <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1438,7 +1447,7 @@
         <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1513,7 +1522,7 @@
         <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1612,7 +1621,7 @@
         <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1620,7 +1629,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1628,7 +1637,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1636,10 +1645,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1647,10 +1656,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1658,7 +1667,7 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1666,7 +1675,7 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1674,10 +1683,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1685,7 +1694,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1693,7 +1702,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1701,7 +1710,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1709,7 +1718,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1717,7 +1726,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1725,7 +1734,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1733,7 +1742,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1741,7 +1750,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1749,7 +1758,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1757,7 +1766,7 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1765,7 +1774,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1773,7 +1782,7 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1781,7 +1790,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1789,7 +1798,7 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1797,7 +1806,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1808,7 +1817,7 @@
         <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1816,10 +1825,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C96" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1830,7 +1839,7 @@
         <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1849,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1848,44 +1857,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://domyssrl-my.sharepoint.com/personal/acquisti_domys_it/Documents/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_369A301669C35CC634F01BD3FDACA2DE2A9BB643" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0654D6C5-7E0D-48C3-9422-48A053172AFE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stato Attuale" sheetId="1" r:id="rId1"/>
     <sheet name="Storico Passaggi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="209">
   <si>
     <t>targa</t>
   </si>
@@ -639,16 +645,19 @@
   </si>
   <si>
     <t>MARCO.VIOLA</t>
+  </si>
+  <si>
+    <t>CENTRO DAMA (JANE QUANDO RIENTRA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,17 +717,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -756,7 +773,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -790,6 +807,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -824,9 +842,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -999,14 +1018,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1025,7 +1050,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1036,7 +1061,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +1069,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1052,7 +1077,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +1088,7 @@
         <v>45851</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1074,7 +1099,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1082,7 +1107,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1090,7 +1115,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1098,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1106,7 +1131,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1114,7 +1139,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1125,7 +1150,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1133,7 +1158,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1141,7 +1166,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1149,7 +1174,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1160,7 +1185,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1171,7 +1196,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1207,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1190,18 +1215,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1209,7 +1234,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1217,7 +1242,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1225,7 +1250,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1233,7 +1258,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1241,7 +1266,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1249,7 +1274,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1257,7 +1282,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1268,7 +1293,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1276,7 +1301,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1284,7 +1309,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1292,7 +1317,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1300,7 +1325,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1308,7 +1333,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1316,7 +1341,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1324,7 +1349,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1332,7 +1357,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1340,7 +1365,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1348,7 +1373,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1356,7 +1381,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1364,7 +1389,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1375,7 +1400,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1383,7 +1408,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1391,7 +1416,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1399,7 +1424,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1407,7 +1432,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1415,7 +1440,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1423,7 +1448,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1431,7 +1456,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1439,7 +1464,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1450,7 +1475,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1458,7 +1483,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1466,7 +1491,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1474,7 +1499,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1482,7 +1507,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1490,7 +1515,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1498,7 +1523,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1506,7 +1531,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1514,7 +1539,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1525,7 +1550,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1533,7 +1558,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1541,7 +1566,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1549,7 +1574,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1557,7 +1582,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1565,7 +1590,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1573,7 +1598,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1581,7 +1606,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1589,7 +1614,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1597,7 +1622,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1605,7 +1630,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1613,7 +1638,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1624,7 +1649,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1632,7 +1657,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1640,7 +1665,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1651,7 +1676,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1662,7 +1687,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1670,7 +1695,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1678,7 +1703,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1689,7 +1714,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -1697,7 +1722,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -1705,7 +1730,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -1713,7 +1738,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -1721,7 +1746,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -1729,7 +1754,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -1737,7 +1762,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -1745,7 +1770,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -1753,7 +1778,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -1761,7 +1786,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -1769,7 +1794,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -1777,7 +1802,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -1785,7 +1810,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -1793,7 +1818,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -1801,7 +1826,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -1809,7 +1834,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -1820,7 +1845,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -1831,7 +1856,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -1848,14 +1873,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>203</v>
       </c>
@@ -1869,7 +1894,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1883,7 +1908,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1897,7 +1922,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://domyssrl-my.sharepoint.com/personal/acquisti_domys_it/Documents/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_369A301669C35CC634F01BD3FDACA2DE2A9BB643" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0654D6C5-7E0D-48C3-9422-48A053172AFE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Stato Attuale" sheetId="1" r:id="rId1"/>
     <sheet name="Storico Passaggi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="209">
   <si>
     <t>targa</t>
   </si>
@@ -374,7 +368,7 @@
     <t>DAVIDE.BONFITTO</t>
   </si>
   <si>
-    <t>PASQUARELLI IN ASSISTENZA (JANE QUANDO RIENTRA)</t>
+    <t>CENTRO DAMA (JANE QUANDO RIENTRA)</t>
   </si>
   <si>
     <t>MARATEA.FELICIA</t>
@@ -557,107 +551,107 @@
     <t>MARCO.DI.NIZO</t>
   </si>
   <si>
+    <t>DI LANZO ALESSIO</t>
+  </si>
+  <si>
+    <t>SARA.VALLERI</t>
+  </si>
+  <si>
+    <t>VALERIO.D'ANTONIO</t>
+  </si>
+  <si>
+    <t>YOEL.DESPAIGNE</t>
+  </si>
+  <si>
+    <t>ERIKA.PATELLA</t>
+  </si>
+  <si>
+    <t>SCACCIA FEDERICA</t>
+  </si>
+  <si>
+    <t>SOFIA.D'ANGELO</t>
+  </si>
+  <si>
+    <t>COCO.FEDERICO</t>
+  </si>
+  <si>
+    <t>CARAVAGGIO.MARISA</t>
+  </si>
+  <si>
+    <t>CHIARA.MANCINI</t>
+  </si>
+  <si>
+    <t>MATTEO.CAVACINI</t>
+  </si>
+  <si>
+    <t>COMPARELLI</t>
+  </si>
+  <si>
+    <t>KALOV SLAVI KRASIMIROV</t>
+  </si>
+  <si>
+    <t>GIOBBE MICHELE</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
+  </si>
+  <si>
     <t>GIAMPIERO.RICUCCI</t>
-  </si>
-  <si>
-    <t>SARA.VALLERI</t>
-  </si>
-  <si>
-    <t>VALERIO.D'ANTONIO</t>
-  </si>
-  <si>
-    <t>YOEL.DESPAIGNE</t>
-  </si>
-  <si>
-    <t>ERIKA.PATELLA</t>
-  </si>
-  <si>
-    <t>SCACCIA FEDERICA</t>
-  </si>
-  <si>
-    <t>SOFIA.D'ANGELO</t>
-  </si>
-  <si>
-    <t>COCO.FEDERICO</t>
-  </si>
-  <si>
-    <t>CARAVAGGIO.MARISA</t>
-  </si>
-  <si>
-    <t>CHIARA.MANCINI</t>
-  </si>
-  <si>
-    <t>MATTEO.CAVACINI</t>
-  </si>
-  <si>
-    <t>COMPARELLI</t>
-  </si>
-  <si>
-    <t>KALOV SLAVI KRASIMIROV</t>
-  </si>
-  <si>
-    <t>GIOBBE MICHELE</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-02-03</t>
-  </si>
-  <si>
-    <t>2026-02-10</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2026-01-23</t>
-  </si>
-  <si>
-    <t>Targa</t>
-  </si>
-  <si>
-    <t>Operatore_Precedente</t>
-  </si>
-  <si>
-    <t>Nuovo_Operatore</t>
-  </si>
-  <si>
-    <t>Data_Cambio</t>
-  </si>
-  <si>
-    <t>MARCO.VIOLA</t>
-  </si>
-  <si>
-    <t>CENTRO DAMA (JANE QUANDO RIENTRA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,25 +711,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -773,7 +759,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -807,7 +793,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -842,10 +827,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1018,20 +1002,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1028,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1061,7 +1039,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1069,7 +1047,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1077,7 +1055,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1088,7 +1066,7 @@
         <v>45851</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1099,7 +1077,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1107,7 +1085,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1115,7 +1093,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1123,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1131,7 +1109,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1139,7 +1117,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1150,7 +1128,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1158,7 +1136,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1166,7 +1144,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1174,7 +1152,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1185,7 +1163,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1196,7 +1174,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1207,7 +1185,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1215,18 +1193,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1234,7 +1212,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1242,7 +1220,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1250,7 +1228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1258,7 +1236,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1266,7 +1244,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1274,7 +1252,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1282,7 +1260,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1293,7 +1271,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1301,7 +1279,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1309,7 +1287,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1317,7 +1295,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1325,7 +1303,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1333,7 +1311,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1341,7 +1319,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1349,7 +1327,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1357,7 +1335,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1365,7 +1343,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1373,7 +1351,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1381,7 +1359,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1389,7 +1367,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1400,7 +1378,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1408,7 +1386,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1416,7 +1394,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1424,7 +1402,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1432,7 +1410,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1440,7 +1418,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1448,7 +1426,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1456,7 +1434,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1464,7 +1442,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1475,7 +1453,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1483,7 +1461,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1491,7 +1469,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1499,7 +1477,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1507,7 +1485,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1515,7 +1493,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1523,7 +1501,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1531,7 +1509,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1539,7 +1517,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1550,7 +1528,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1558,7 +1536,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1566,7 +1544,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1574,7 +1552,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1582,7 +1560,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1590,7 +1568,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1598,7 +1576,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1606,7 +1584,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1614,7 +1592,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1622,7 +1600,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1630,7 +1608,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1638,7 +1616,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1649,7 +1627,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1657,7 +1635,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1665,7 +1643,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1676,7 +1654,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1687,7 +1665,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1695,7 +1673,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1703,7 +1681,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1714,7 +1692,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -1722,7 +1700,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -1730,15 +1708,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -1746,7 +1727,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -1754,7 +1735,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -1762,7 +1743,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -1770,7 +1751,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -1778,7 +1759,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -1786,7 +1767,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -1794,7 +1775,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -1802,7 +1783,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -1810,7 +1791,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -1818,7 +1799,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -1826,7 +1807,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -1834,7 +1815,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -1842,10 +1823,10 @@
         <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -1853,10 +1834,10 @@
         <v>191</v>
       </c>
       <c r="C96" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -1864,7 +1845,7 @@
         <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1873,67 +1854,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/flotta.xlsx
+++ b/flotta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="209">
   <si>
     <t>targa</t>
   </si>
@@ -527,121 +527,121 @@
     <t>JANE.LUCIANO</t>
   </si>
   <si>
+    <t>DI DEO MICHELE</t>
+  </si>
+  <si>
+    <t>PACELLA VALERY</t>
+  </si>
+  <si>
+    <t>ROCCO ZACCAGNIGNO (MOMENTANEO, SUA IN ASSISTENZA)</t>
+  </si>
+  <si>
+    <t>LAURA.STANISCI</t>
+  </si>
+  <si>
+    <t>SABINA.LANCIA</t>
+  </si>
+  <si>
+    <t>MASCIARELLI MAURIZIO</t>
+  </si>
+  <si>
+    <t>IEZZI.SERENA</t>
+  </si>
+  <si>
+    <t>MARCO.DI.NIZO</t>
+  </si>
+  <si>
+    <t>DI LANZO ALESSIO</t>
+  </si>
+  <si>
+    <t>SARA.VALLERI</t>
+  </si>
+  <si>
+    <t>VALERIO.D'ANTONIO</t>
+  </si>
+  <si>
+    <t>YOEL.DESPAIGNE</t>
+  </si>
+  <si>
+    <t>ERIKA.PATELLA</t>
+  </si>
+  <si>
+    <t>SCACCIA FEDERICA</t>
+  </si>
+  <si>
+    <t>SOFIA.D'ANGELO</t>
+  </si>
+  <si>
+    <t>COCO.FEDERICO</t>
+  </si>
+  <si>
+    <t>CARAVAGGIO.MARISA</t>
+  </si>
+  <si>
+    <t>CHIARA.MANCINI</t>
+  </si>
+  <si>
+    <t>MATTEO.CAVACINI</t>
+  </si>
+  <si>
+    <t>COMPARELLI</t>
+  </si>
+  <si>
+    <t>KALOV SLAVI KRASIMIROV</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-02-13</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>Operatore_Precedente</t>
+  </si>
+  <si>
+    <t>Nuovo_Operatore</t>
+  </si>
+  <si>
+    <t>Data_Cambio</t>
+  </si>
+  <si>
     <t>CHRISTIAN.VERNA</t>
   </si>
   <si>
-    <t>PACELLA VALERY</t>
-  </si>
-  <si>
-    <t>ROCCO ZACCAGNIGNO (MOMENTANEO, SUA IN ASSISTENZA)</t>
-  </si>
-  <si>
-    <t>LAURA.STANISCI</t>
-  </si>
-  <si>
-    <t>SABINA.LANCIA</t>
-  </si>
-  <si>
-    <t>MASCIARELLI MAURIZIO</t>
-  </si>
-  <si>
-    <t>IEZZI.SERENA</t>
-  </si>
-  <si>
-    <t>MARCO.DI.NIZO</t>
-  </si>
-  <si>
-    <t>DI LANZO ALESSIO</t>
-  </si>
-  <si>
-    <t>SARA.VALLERI</t>
-  </si>
-  <si>
-    <t>VALERIO.D'ANTONIO</t>
-  </si>
-  <si>
-    <t>YOEL.DESPAIGNE</t>
-  </si>
-  <si>
-    <t>ERIKA.PATELLA</t>
-  </si>
-  <si>
-    <t>SCACCIA FEDERICA</t>
-  </si>
-  <si>
-    <t>SOFIA.D'ANGELO</t>
-  </si>
-  <si>
-    <t>COCO.FEDERICO</t>
-  </si>
-  <si>
-    <t>CARAVAGGIO.MARISA</t>
-  </si>
-  <si>
-    <t>CHIARA.MANCINI</t>
-  </si>
-  <si>
-    <t>MATTEO.CAVACINI</t>
-  </si>
-  <si>
-    <t>COMPARELLI</t>
-  </si>
-  <si>
-    <t>KALOV SLAVI KRASIMIROV</t>
-  </si>
-  <si>
     <t>GIOBBE MICHELE</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-02-03</t>
-  </si>
-  <si>
-    <t>2026-02-10</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2026-02-12</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2026-01-23</t>
-  </si>
-  <si>
-    <t>Targa</t>
-  </si>
-  <si>
-    <t>Operatore_Precedente</t>
-  </si>
-  <si>
-    <t>Nuovo_Operatore</t>
-  </si>
-  <si>
-    <t>Data_Cambio</t>
-  </si>
-  <si>
-    <t>GIAMPIERO.RICUCCI</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1036,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1160,7 +1160,7 @@
         <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1171,7 +1171,7 @@
         <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1182,7 +1182,7 @@
         <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1201,7 +1201,7 @@
         <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1375,7 +1375,7 @@
         <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1624,7 +1624,7 @@
         <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1642,6 +1642,9 @@
       <c r="B74" t="s">
         <v>170</v>
       </c>
+      <c r="C74" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
@@ -1651,7 +1654,7 @@
         <v>171</v>
       </c>
       <c r="C75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1662,7 +1665,7 @@
         <v>172</v>
       </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1689,7 +1692,7 @@
         <v>175</v>
       </c>
       <c r="C79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1831,10 +1834,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="C96" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1855,7 +1858,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1863,30 +1866,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
         <v>208</v>
       </c>
-      <c r="C2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" t="s">
-        <v>201</v>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
